--- a/sriramModel-nelson-atypical-patientID_54-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_54-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.008608087930597</v>
+        <v>1.999550376275335</v>
       </c>
       <c r="C2">
-        <v>2.003630273091598</v>
+        <v>2.004556152510228</v>
       </c>
       <c r="D2">
-        <v>2.039533753667583</v>
+        <v>2.016968043976084</v>
       </c>
       <c r="E2">
-        <v>2.00261380550469</v>
+        <v>2.00185608757969</v>
       </c>
       <c r="F2">
-        <v>2.031127859657324</v>
+        <v>2.003784358150356</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.017386330887078</v>
+        <v>1.999121074592409</v>
       </c>
       <c r="C3">
-        <v>2.007340524568401</v>
+        <v>2.00919710002129</v>
       </c>
       <c r="D3">
-        <v>2.079147926010787</v>
+        <v>2.034120147199387</v>
       </c>
       <c r="E3">
-        <v>2.005369117007594</v>
+        <v>2.003879508928534</v>
       </c>
       <c r="F3">
-        <v>2.062363312400413</v>
+        <v>2.007627696993041</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.026322222082405</v>
+        <v>1.998711077570755</v>
       </c>
       <c r="C4">
-        <v>2.011131330179071</v>
+        <v>2.013923129795816</v>
       </c>
       <c r="D4">
-        <v>2.118822265573578</v>
+        <v>2.051443358843969</v>
       </c>
       <c r="E4">
-        <v>2.008260059617255</v>
+        <v>2.006059086213307</v>
       </c>
       <c r="F4">
-        <v>2.0936867755293</v>
+        <v>2.011529265167197</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.035404495053026</v>
+        <v>1.998319494765608</v>
       </c>
       <c r="C5">
-        <v>2.015003452601701</v>
+        <v>2.018734844684725</v>
       </c>
       <c r="D5">
-        <v>2.158538041276848</v>
+        <v>2.068925931073264</v>
       </c>
       <c r="E5">
-        <v>2.011281445574972</v>
+        <v>2.008384639610681</v>
       </c>
       <c r="F5">
-        <v>2.125080674093786</v>
+        <v>2.015488530015371</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.044623032591083</v>
+        <v>1.99794555534228</v>
       </c>
       <c r="C6">
-        <v>2.018957843315973</v>
+        <v>2.023633163973425</v>
       </c>
       <c r="D6">
-        <v>2.198277972618561</v>
+        <v>2.086557248479683</v>
       </c>
       <c r="E6">
-        <v>2.014428734988721</v>
+        <v>2.010846936436419</v>
       </c>
       <c r="F6">
-        <v>2.156529338719462</v>
+        <v>2.019505175492116</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.053968816501223</v>
+        <v>1.997588614052747</v>
       </c>
       <c r="C7">
-        <v>2.022995639876305</v>
+        <v>2.028619327799001</v>
       </c>
       <c r="D7">
-        <v>2.238026160322307</v>
+        <v>2.104327809184714</v>
       </c>
       <c r="E7">
-        <v>2.017698013692963</v>
+        <v>2.013437673655263</v>
       </c>
       <c r="F7">
-        <v>2.188018889947942</v>
+        <v>2.02357909734063</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.063433879034551</v>
+        <v>1.997248148829861</v>
       </c>
       <c r="C8">
-        <v>2.027118167173376</v>
+        <v>2.033694902110183</v>
       </c>
       <c r="D8">
-        <v>2.27776803359765</v>
+        <v>2.122229146734535</v>
       </c>
       <c r="E8">
-        <v>2.021085976374027</v>
+        <v>2.01614940866904</v>
       </c>
       <c r="F8">
-        <v>2.219537222204728</v>
+        <v>2.027710401018572</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.073011236579677</v>
+        <v>1.99692375933195</v>
       </c>
       <c r="C9">
-        <v>2.03132693820805</v>
+        <v>2.03886178483813</v>
       </c>
       <c r="D9">
-        <v>2.317490299605355</v>
+        <v>2.140253798511724</v>
       </c>
       <c r="E9">
-        <v>2.024589906783049</v>
+        <v>2.018975530017073</v>
       </c>
       <c r="F9">
-        <v>2.251073914708361</v>
+        <v>2.031899399698929</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.082694840455802</v>
+        <v>1.996615168650761</v>
       </c>
       <c r="C10">
-        <v>2.035623655393688</v>
+        <v>2.044122215024997</v>
       </c>
       <c r="D10">
-        <v>2.357180893835502</v>
+        <v>2.158395265719237</v>
       </c>
       <c r="E10">
-        <v>2.028207659791007</v>
+        <v>2.021910225558665</v>
       </c>
       <c r="F10">
-        <v>2.282620150509445</v>
+        <v>2.036146613019213</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.092479539415492</v>
+        <v>1.996322224330676</v>
       </c>
       <c r="C11">
-        <v>2.040010212288332</v>
+        <v>2.049478783384316</v>
       </c>
       <c r="D11">
-        <v>2.396828930517663</v>
+        <v>2.176647974436567</v>
       </c>
       <c r="E11">
-        <v>2.031937646439117</v>
+        <v>2.024948446056122</v>
       </c>
       <c r="F11">
-        <v>2.314168685925724</v>
+        <v>2.04045276647826</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.102361035582582</v>
+        <v>1.996044899591955</v>
       </c>
       <c r="C12">
-        <v>2.044488696024972</v>
+        <v>2.054934444734994</v>
       </c>
       <c r="D12">
-        <v>2.436424663191127</v>
+        <v>2.195007244933433</v>
       </c>
       <c r="E12">
-        <v>2.035778821455922</v>
+        <v>2.028085871891315</v>
       </c>
       <c r="F12">
-        <v>2.345713807526028</v>
+        <v>2.04481879194269</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.11233584442884</v>
+        <v>1.995783295220549</v>
       </c>
       <c r="C13">
-        <v>2.049061390455835</v>
+        <v>2.060492533252232</v>
       </c>
       <c r="D13">
-        <v>2.475959448950988</v>
+        <v>2.213469261709042</v>
       </c>
       <c r="E13">
-        <v>2.039730671527725</v>
+        <v>2.031318883359014</v>
       </c>
       <c r="F13">
-        <v>2.377251284432722</v>
+        <v>2.049245828976846</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.122401253588963</v>
+        <v>1.99553764168517</v>
       </c>
       <c r="C14">
-        <v>2.053730780371643</v>
+        <v>2.06615678070331</v>
       </c>
       <c r="D14">
-        <v>2.515425713596753</v>
+        <v>2.232031046889859</v>
       </c>
       <c r="E14">
-        <v>2.043793208028457</v>
+        <v>2.034644532243299</v>
       </c>
       <c r="F14">
-        <v>2.408778321658982</v>
+        <v>2.053735227000207</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.132555287084381</v>
+        <v>1.995308301841645</v>
       </c>
       <c r="C15">
-        <v>2.058499555735443</v>
+        <v>2.0719313370817</v>
       </c>
       <c r="D15">
-        <v>2.55481692147066</v>
+        <v>2.250690416378262</v>
       </c>
       <c r="E15">
-        <v>2.04796696076645</v>
+        <v>2.038060519340687</v>
       </c>
       <c r="F15">
-        <v>2.440293515033135</v>
+        <v>2.058288548585155</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.142796674616708</v>
+        <v>1.995095774481857</v>
       </c>
       <c r="C16">
-        <v>2.063370614946887</v>
+        <v>2.077820793019022</v>
       </c>
       <c r="D16">
-        <v>2.594127549446182</v>
+        <v>2.26944596813616</v>
       </c>
       <c r="E16">
-        <v>2.052252970549181</v>
+        <v>2.041565170539168</v>
       </c>
       <c r="F16">
-        <v>2.471796844340594</v>
+        <v>2.062907574978991</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.153124818793913</v>
+        <v>1.99490069695395</v>
       </c>
       <c r="C17">
-        <v>2.068347073428721</v>
+        <v>2.083830208695297</v>
       </c>
       <c r="D17">
-        <v>2.633353066967463</v>
+        <v>2.288297063017005</v>
       </c>
       <c r="E17">
-        <v>2.056652787470909</v>
+        <v>2.045157415948057</v>
       </c>
       <c r="F17">
-        <v>2.503289648137879</v>
+        <v>2.067594306647748</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.163539770791259</v>
+        <v>1.994723848915605</v>
       </c>
       <c r="C18">
-        <v>2.073432271494566</v>
+        <v>2.08996514578851</v>
       </c>
       <c r="D18">
-        <v>2.672489921171398</v>
+        <v>2.307243807961102</v>
       </c>
       <c r="E18">
-        <v>2.061168473249678</v>
+        <v>2.048836771238459</v>
       </c>
       <c r="F18">
-        <v>2.534774602354737</v>
+        <v>2.072350978199806</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.174042205770247</v>
+        <v>1.99456615858922</v>
       </c>
       <c r="C19">
-        <v>2.078629780875829</v>
+        <v>2.096231703846659</v>
       </c>
       <c r="D19">
-        <v>2.711535525966967</v>
+        <v>2.326287040580558</v>
       </c>
       <c r="E19">
-        <v>2.065802604850321</v>
+        <v>2.052603310789533</v>
       </c>
       <c r="F19">
-        <v>2.5662557067788</v>
+        <v>2.077180048819663</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.184633399016747</v>
+        <v>1.994428706956898</v>
       </c>
       <c r="C20">
-        <v>2.0839434127449</v>
+        <v>2.102636561272944</v>
       </c>
       <c r="D20">
-        <v>2.750488256576726</v>
+        <v>2.345428315354813</v>
       </c>
       <c r="E20">
-        <v>2.070558280339487</v>
+        <v>2.05645766216704</v>
       </c>
       <c r="F20">
-        <v>2.597738272386311</v>
+        <v>2.082084233584303</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.195315206054572</v>
+        <v>1.994312734041884</v>
       </c>
       <c r="C21">
-        <v>2.089377227589302</v>
+        <v>2.109187022267646</v>
       </c>
       <c r="D21">
-        <v>2.789347450308965</v>
+        <v>2.364669894740646</v>
       </c>
       <c r="E21">
-        <v>2.075439127714116</v>
+        <v>2.060400992870475</v>
       </c>
       <c r="F21">
-        <v>2.629228918144101</v>
+        <v>2.087066502994106</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.206090045681044</v>
+        <v>1.994219646275742</v>
       </c>
       <c r="C22">
-        <v>2.094935546696381</v>
+        <v>2.115891071683758</v>
       </c>
       <c r="D22">
-        <v>2.82811341396664</v>
+        <v>2.38401474472511</v>
       </c>
       <c r="E22">
-        <v>2.080449319718748</v>
+        <v>2.064434999872562</v>
       </c>
       <c r="F22">
-        <v>2.660735574402224</v>
+        <v>2.092130099224924</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.216960885554244</v>
+        <v>1.994151023000964</v>
       </c>
       <c r="C23">
-        <v>2.100622964531557</v>
+        <v>2.122757436262209</v>
       </c>
       <c r="D23">
-        <v>2.866787438284226</v>
+        <v>2.403466520364483</v>
       </c>
       <c r="E23">
-        <v>2.085593584617848</v>
+        <v>2.068561904454248</v>
       </c>
       <c r="F23">
-        <v>2.692267490467558</v>
+        <v>2.097278546948054</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.227931230287348</v>
+        <v>1.994108624238857</v>
       </c>
       <c r="C24">
-        <v>2.106444362090316</v>
+        <v>2.129795654902559</v>
       </c>
       <c r="D24">
-        <v>2.905371819991177</v>
+        <v>2.423029587693891</v>
       </c>
       <c r="E24">
-        <v>2.090877238136211</v>
+        <v>2.072784444064276</v>
       </c>
       <c r="F24">
-        <v>2.723835247655702</v>
+        <v>2.102515670541957</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.239005111703544</v>
+        <v>1.994094400034716</v>
       </c>
       <c r="C25">
-        <v>2.112404921474054</v>
+        <v>2.137016158069271</v>
       </c>
       <c r="D25">
-        <v>2.943869892059544</v>
+        <v>2.44270897987269</v>
       </c>
       <c r="E25">
-        <v>2.096306183442931</v>
+        <v>2.07710587135783</v>
       </c>
       <c r="F25">
-        <v>2.75545077834549</v>
+        <v>2.107845612938535</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.250187082742279</v>
+        <v>1.99411050094795</v>
       </c>
       <c r="C26">
-        <v>2.118510142031466</v>
+        <v>2.144430359357393</v>
       </c>
       <c r="D26">
-        <v>2.982286062118961</v>
+        <v>2.462510465955406</v>
       </c>
       <c r="E26">
-        <v>2.101886973131912</v>
+        <v>2.081529953121424</v>
       </c>
       <c r="F26">
-        <v>2.787127389305337</v>
+        <v>2.113272856458532</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.261482214574391</v>
+        <v>1.994159288524409</v>
       </c>
       <c r="C27">
-        <v>2.124765858416219</v>
+        <v>2.152050763212346</v>
       </c>
       <c r="D27">
-        <v>3.020625862761985</v>
+        <v>2.482440527385732</v>
       </c>
       <c r="E27">
-        <v>2.107626813245333</v>
+        <v>2.086060975674396</v>
       </c>
       <c r="F27">
-        <v>2.818879794601631</v>
+        <v>2.118802250351993</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.272896095764106</v>
+        <v>1.99424334771224</v>
       </c>
       <c r="C28">
-        <v>2.131178260342231</v>
+        <v>2.159891083748536</v>
       </c>
       <c r="D28">
-        <v>3.05889601165448</v>
+        <v>2.502506384461471</v>
       </c>
       <c r="E28">
-        <v>2.113533626542321</v>
+        <v>2.090703752574946</v>
       </c>
       <c r="F28">
-        <v>2.850724153396181</v>
+        <v>2.12443903719395</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.284434835157692</v>
+        <v>1.994365500698216</v>
       </c>
       <c r="C29">
-        <v>2.13775391413548</v>
+        <v>2.167966383924353</v>
       </c>
       <c r="D29">
-        <v>3.097104484183312</v>
+        <v>2.522716003761191</v>
       </c>
       <c r="E29">
-        <v>2.119616097967618</v>
+        <v>2.095463635425004</v>
       </c>
       <c r="F29">
-        <v>2.882678115163164</v>
+        <v>2.130188883131699</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.296105067089486</v>
+        <v>1.994528821762083</v>
       </c>
       <c r="C30">
-        <v>2.144499786324802</v>
+        <v>2.176293232618857</v>
       </c>
       <c r="D30">
-        <v>3.135260599699798</v>
+        <v>2.543078125489399</v>
       </c>
       <c r="E30">
-        <v>2.125883706962759</v>
+        <v>2.100346528024502</v>
       </c>
       <c r="F30">
-        <v>2.914760872094811</v>
+        <v>2.136057914945884</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.307913963118823</v>
+        <v>1.994736652378092</v>
       </c>
       <c r="C31">
-        <v>2.15142326955772</v>
+        <v>2.184889887455776</v>
       </c>
       <c r="D31">
-        <v>3.17337512300431</v>
+        <v>2.563602285796914</v>
       </c>
       <c r="E31">
-        <v>2.132346828639021</v>
+        <v>2.105358906120657</v>
       </c>
       <c r="F31">
-        <v>2.946993219159838</v>
+        <v>2.142052760850402</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.319869244920447</v>
+        <v>1.994992621453624</v>
       </c>
       <c r="C32">
-        <v>2.158532210758481</v>
+        <v>2.193776511082683</v>
       </c>
       <c r="D32">
-        <v>3.211460382892508</v>
+        <v>2.584298856590336</v>
       </c>
       <c r="E32">
-        <v>2.139016761184908</v>
+        <v>2.110507842429009</v>
       </c>
       <c r="F32">
-        <v>2.979397619887887</v>
+        <v>2.148180597636901</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.331979202886462</v>
+        <v>1.99530066536822</v>
       </c>
       <c r="C33">
-        <v>2.165834942253468</v>
+        <v>2.202975410853654</v>
       </c>
       <c r="D33">
-        <v>3.249530409867571</v>
+        <v>2.605179087283109</v>
       </c>
       <c r="E33">
-        <v>2.14590584878659</v>
+        <v>2.115801036387222</v>
       </c>
       <c r="F33">
-        <v>3.011998283515866</v>
+        <v>2.154449198515325</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.344252716448715</v>
+        <v>1.995665049144397</v>
       </c>
       <c r="C34">
-        <v>2.173340315786147</v>
+        <v>2.212511326048068</v>
       </c>
       <c r="D34">
-        <v>3.287601095819784</v>
+        <v>2.626255146353064</v>
       </c>
       <c r="E34">
-        <v>2.153027552001311</v>
+        <v>2.121246849904709</v>
       </c>
       <c r="F34">
-        <v>3.044821246996058</v>
+        <v>2.160866999812061</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.356699284402536</v>
+        <v>1.996090392727813</v>
       </c>
       <c r="C35">
-        <v>2.181057739518944</v>
+        <v>2.22241175131053</v>
       </c>
       <c r="D35">
-        <v>3.325690377057224</v>
+        <v>2.647540173656856</v>
       </c>
       <c r="E35">
-        <v>2.160396553699782</v>
+        <v>2.126854349652451</v>
       </c>
       <c r="F35">
-        <v>3.0778944654415</v>
+        <v>2.167443167883998</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.369329056765662</v>
+        <v>1.996581699355103</v>
       </c>
       <c r="C36">
-        <v>2.188997218552644</v>
+        <v>2.232707316856041</v>
       </c>
       <c r="D36">
-        <v>3.363818445493374</v>
+        <v>2.66904834275945</v>
       </c>
       <c r="E36">
-        <v>2.168028925873257</v>
+        <v>2.13263336119706</v>
       </c>
       <c r="F36">
-        <v>3.111247909816215</v>
+        <v>2.174187675334772</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.382152874336612</v>
+        <v>1.997144386427342</v>
       </c>
       <c r="C37">
-        <v>2.197169399217913</v>
+        <v>2.243432239715743</v>
       </c>
       <c r="D37">
-        <v>3.402007992768315</v>
+        <v>2.690794929659972</v>
       </c>
       <c r="E37">
-        <v>2.175942189228433</v>
+        <v>2.138594528482364</v>
       </c>
       <c r="F37">
-        <v>3.144913671127894</v>
+        <v>2.181111390776288</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.395182311674601</v>
+        <v>1.997784318412535</v>
       </c>
       <c r="C38">
-        <v>2.205585617463495</v>
+        <v>2.254624833736616</v>
       </c>
       <c r="D38">
-        <v>3.440284488626747</v>
+        <v>2.712796381569769</v>
       </c>
       <c r="E38">
-        <v>2.184155579626939</v>
+        <v>2.144749386535154</v>
       </c>
       <c r="F38">
-        <v>3.178926068938187</v>
+        <v>2.188226187103675</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.408429732567064</v>
+        <v>1.998507849816686</v>
       </c>
       <c r="C39">
-        <v>2.214257951816087</v>
+        <v>2.266328111694628</v>
       </c>
       <c r="D39">
-        <v>3.478676500907458</v>
+        <v>2.735070416000512</v>
       </c>
       <c r="E39">
-        <v>2.192690136902426</v>
+        <v>2.151110439877654</v>
       </c>
       <c r="F39">
-        <v>3.213321766560972</v>
+        <v>2.195545062124422</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.421908350607908</v>
+        <v>1.999321868747104</v>
       </c>
       <c r="C40">
-        <v>2.223199280709791</v>
+        <v>2.27859046762723</v>
       </c>
       <c r="D40">
-        <v>3.517216062473601</v>
+        <v>2.757636118234167</v>
       </c>
       <c r="E40">
-        <v>2.201568980883924</v>
+        <v>2.157691268208587</v>
       </c>
       <c r="F40">
-        <v>3.248139885116793</v>
+        <v>2.203082264792238</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.435632299515538</v>
+        <v>2.000233842511759</v>
       </c>
       <c r="C41">
-        <v>2.23242334553942</v>
+        <v>2.291466475901286</v>
       </c>
       <c r="D41">
-        <v>3.555939091769565</v>
+        <v>2.780514046102426</v>
       </c>
       <c r="E41">
-        <v>2.210817555974389</v>
+        <v>2.164506638849259</v>
       </c>
       <c r="F41">
-        <v>3.283422116926991</v>
+        <v>2.210853465980519</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.449616710743333</v>
+        <v>2.00125187883598</v>
       </c>
       <c r="C42">
-        <v>2.241944819349628</v>
+        <v>2.305017829219957</v>
       </c>
       <c r="D42">
-        <v>3.594885875280331</v>
+        <v>2.803726360244016</v>
       </c>
       <c r="E42">
-        <v>2.220463808737835</v>
+        <v>2.17157264559956</v>
       </c>
       <c r="F42">
-        <v>3.319212833024429</v>
+        <v>2.218875945182889</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.463877806280141</v>
+        <v>2.002384789627127</v>
       </c>
       <c r="C43">
-        <v>2.251779381319909</v>
+        <v>2.319314377983072</v>
       </c>
       <c r="D43">
-        <v>3.634101619460118</v>
+        <v>2.82729696787829</v>
       </c>
       <c r="E43">
-        <v>2.230538638407409</v>
+        <v>2.17890685638416</v>
       </c>
       <c r="F43">
-        <v>3.355559178643605</v>
+        <v>2.227168809359636</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.47843300445224</v>
+        <v>2.003642161128473</v>
       </c>
       <c r="C44">
-        <v>2.261943797881177</v>
+        <v>2.33443531586355</v>
       </c>
       <c r="D44">
-        <v>3.673637084783563</v>
+        <v>2.851251679487715</v>
       </c>
       <c r="E44">
-        <v>2.24107620381143</v>
+        <v>2.186528511299394</v>
       </c>
       <c r="F44">
-        <v>3.392511153952728</v>
+        <v>2.235753225742711</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.493301037673859</v>
+        <v>2.005034436150999</v>
       </c>
       <c r="C45">
-        <v>2.272456010761926</v>
+        <v>2.350470458582152</v>
       </c>
       <c r="D45">
-        <v>3.713549299881155</v>
+        <v>2.875618370639061</v>
       </c>
       <c r="E45">
-        <v>2.252114344682005</v>
+        <v>2.194458740226862</v>
       </c>
       <c r="F45">
-        <v>3.430121662357327</v>
+        <v>2.244652750973331</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.508502085714558</v>
+        <v>2.006573010436309</v>
       </c>
       <c r="C46">
-        <v>2.283335232359534</v>
+        <v>2.367521644809427</v>
       </c>
       <c r="D46">
-        <v>3.753902389500337</v>
+        <v>2.900427200857567</v>
       </c>
       <c r="E46">
-        <v>2.263695020895596</v>
+        <v>2.202720826905125</v>
       </c>
       <c r="F46">
-        <v>3.468446521987046</v>
+        <v>2.253893677640377</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.524057925418251</v>
+        <v>2.008270344449879</v>
       </c>
       <c r="C47">
-        <v>2.294602048981987</v>
+        <v>2.385704171181144</v>
       </c>
       <c r="D47">
-        <v>3.794768504842132</v>
+        <v>2.925710826386983</v>
       </c>
       <c r="E47">
-        <v>2.275864840741647</v>
+        <v>2.211340500027865</v>
       </c>
       <c r="F47">
-        <v>3.507544424034798</v>
+        <v>2.263505429567174</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.539992110403222</v>
+        <v>2.010140072064084</v>
       </c>
       <c r="C48">
-        <v>2.306278531247728</v>
+        <v>2.405148084487931</v>
       </c>
       <c r="D48">
-        <v>3.83622887158034</v>
+        <v>2.951504624679976</v>
       </c>
       <c r="E48">
-        <v>2.288675655529027</v>
+        <v>2.220346313043831</v>
       </c>
       <c r="F48">
-        <v>3.547476819936689</v>
+        <v>2.273521064552515</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.556330162258223</v>
+        <v>2.012197163748153</v>
       </c>
       <c r="C49">
-        <v>2.318388353424304</v>
+        <v>2.425999148927555</v>
       </c>
       <c r="D49">
-        <v>3.878374958807393</v>
+        <v>2.977846984812559</v>
       </c>
       <c r="E49">
-        <v>2.302185202828897</v>
+        <v>2.229770079283145</v>
       </c>
       <c r="F49">
-        <v>3.588307719130854</v>
+        <v>2.283977884082301</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.573099795589694</v>
+        <v>2.014458088398643</v>
       </c>
       <c r="C50">
-        <v>2.330956920703586</v>
+        <v>2.448419486010227</v>
       </c>
       <c r="D50">
-        <v>3.921309762813624</v>
+        <v>3.004779601898066</v>
       </c>
       <c r="E50">
-        <v>2.316457822697949</v>
+        <v>2.239647395905162</v>
       </c>
       <c r="F50">
-        <v>3.630103390885261</v>
+        <v>2.294918148743642</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.590331152897674</v>
+        <v>2.016940990282485</v>
       </c>
       <c r="C51">
-        <v>2.344011503639104</v>
+        <v>2.472586306778337</v>
       </c>
       <c r="D51">
-        <v>3.96514918568308</v>
+        <v>3.032347787970748</v>
       </c>
       <c r="E51">
-        <v>2.331565225807888</v>
+        <v>2.250018242552979</v>
       </c>
       <c r="F51">
-        <v>3.672931894911623</v>
+        <v>2.30638983566998</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.608057094168589</v>
+        <v>2.019665923951273</v>
       </c>
       <c r="C52">
-        <v>2.357581378941596</v>
+        <v>2.498689541088488</v>
       </c>
       <c r="D52">
-        <v>4.0100234652758</v>
+        <v>3.06060082562475</v>
       </c>
       <c r="E52">
-        <v>2.347587264782852</v>
+        <v>2.260927735968186</v>
       </c>
       <c r="F52">
-        <v>3.716862507341324</v>
+        <v>2.318447719962709</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.626313651051362</v>
+        <v>2.022655120521182</v>
       </c>
       <c r="C53">
-        <v>2.371697998201391</v>
+        <v>2.526926773750005</v>
       </c>
       <c r="D53">
-        <v>4.056078844626468</v>
+        <v>3.089592366072666</v>
       </c>
       <c r="E53">
-        <v>2.364612880215056</v>
+        <v>2.272427049227997</v>
       </c>
       <c r="F53">
-        <v>3.761965042198654</v>
+        <v>2.331154594381972</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.64514163844811</v>
+        <v>2.025933285292944</v>
       </c>
       <c r="C54">
-        <v>2.386395266799662</v>
+        <v>2.557494167202294</v>
       </c>
       <c r="D54">
-        <v>4.103481100546655</v>
+        <v>3.119380825092819</v>
       </c>
       <c r="E54">
-        <v>2.382741518130488</v>
+        <v>2.284574496300565</v>
       </c>
       <c r="F54">
-        <v>3.808310349468414</v>
+        <v>2.344582827238052</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.664588245802482</v>
+        <v>2.029527928169148</v>
       </c>
       <c r="C55">
-        <v>2.401709858161368</v>
+        <v>2.590573485984486</v>
       </c>
       <c r="D55">
-        <v>4.152418860068213</v>
+        <v>3.150029783587219</v>
       </c>
       <c r="E55">
-        <v>2.402085034643413</v>
+        <v>2.297436713415273</v>
       </c>
       <c r="F55">
-        <v>3.855970804417976</v>
+        <v>2.358816069131459</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.684707380837792</v>
+        <v>2.033469825510989</v>
       </c>
       <c r="C56">
-        <v>2.417681340084417</v>
+        <v>2.626315510165923</v>
       </c>
       <c r="D56">
-        <v>4.203103642599574</v>
+        <v>3.181608462810366</v>
       </c>
       <c r="E56">
-        <v>2.42276771211122</v>
+        <v>2.31109049271488</v>
       </c>
       <c r="F56">
-        <v>3.905018602572357</v>
+        <v>2.373951367562376</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.705559984942086</v>
+        <v>2.03779350809731</v>
       </c>
       <c r="C57">
-        <v>2.43435228902809</v>
+        <v>2.664820650401243</v>
       </c>
       <c r="D57">
-        <v>4.255768727022692</v>
+        <v>3.214192129957294</v>
       </c>
       <c r="E57">
-        <v>2.444925952305525</v>
+        <v>2.325624576395207</v>
       </c>
       <c r="F57">
-        <v>3.955523870600211</v>
+        <v>2.390101763561255</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.727214392278671</v>
+        <v>2.042537773279828</v>
       </c>
       <c r="C58">
-        <v>2.451768400279682</v>
+        <v>2.706120638776299</v>
       </c>
       <c r="D58">
-        <v>4.310666218547851</v>
+        <v>3.247862513286835</v>
       </c>
       <c r="E58">
-        <v>2.468707118633642</v>
+        <v>2.341141911027195</v>
       </c>
       <c r="F58">
-        <v>4.007552467912554</v>
+        <v>2.407399366722744</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.749746768960763</v>
+        <v>2.047746424643575</v>
       </c>
       <c r="C59">
-        <v>2.469978565531748</v>
+        <v>2.750165931343093</v>
       </c>
       <c r="D59">
-        <v>4.368061533003066</v>
+        <v>3.282708154810862</v>
       </c>
       <c r="E59">
-        <v>2.494267174383126</v>
+        <v>2.357762397369407</v>
       </c>
       <c r="F59">
-        <v>4.061163685329951</v>
+        <v>2.425998904724335</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.773241626522192</v>
+        <v>2.053469058018388</v>
       </c>
       <c r="C60">
-        <v>2.489034916120039</v>
+        <v>2.796823153231158</v>
       </c>
       <c r="D60">
-        <v>4.428224478903598</v>
+        <v>3.318824656860532</v>
       </c>
       <c r="E60">
-        <v>2.521766690052361</v>
+        <v>2.375626148012748</v>
       </c>
       <c r="F60">
-        <v>4.116407818995881</v>
+        <v>2.446081722124926</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.797792331742479</v>
+        <v>2.059762058178735</v>
       </c>
       <c r="C61">
-        <v>2.508992816104252</v>
+        <v>2.84588467390952</v>
       </c>
       <c r="D61">
-        <v>4.491416100446262</v>
+        <v>3.356314785034649</v>
       </c>
       <c r="E61">
-        <v>2.551364771069141</v>
+        <v>2.394897190376417</v>
       </c>
       <c r="F61">
-        <v>4.173323827730325</v>
+        <v>2.467860072820468</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.823501614387419</v>
+        <v>2.066689672462914</v>
       </c>
       <c r="C62">
-        <v>2.529910784963859</v>
+        <v>2.897088967925354</v>
       </c>
       <c r="D62">
-        <v>4.557871101759144</v>
+        <v>3.395288346877467</v>
       </c>
       <c r="E62">
-        <v>2.583210776708714</v>
+        <v>2.415767512344468</v>
       </c>
       <c r="F62">
-        <v>4.231937103745956</v>
+        <v>2.491581278725414</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.850482042871282</v>
+        <v>2.074325278165198</v>
       </c>
       <c r="C63">
-        <v>2.551850328045124</v>
+        <v>2.950146316859226</v>
       </c>
       <c r="D63">
-        <v>4.627776644176213</v>
+        <v>3.435861751791378</v>
       </c>
       <c r="E63">
-        <v>2.617433413867404</v>
+        <v>2.438461175400712</v>
       </c>
       <c r="F63">
-        <v>4.292257546392428</v>
+        <v>2.517531035031892</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.87885635056198</v>
+        <v>2.082752882256497</v>
       </c>
       <c r="C64">
-        <v>2.57487564847774</v>
+        <v>3.004764066505291</v>
       </c>
       <c r="D64">
-        <v>4.701249861318894</v>
+        <v>3.478157141034994</v>
       </c>
       <c r="E64">
-        <v>2.65412836498477</v>
+        <v>2.46323792548745</v>
       </c>
       <c r="F64">
-        <v>4.354278099845049</v>
+        <v>2.546033887760819</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.908757501347014</v>
+        <v>2.092068835353053</v>
       </c>
       <c r="C65">
-        <v>2.59905321101053</v>
+        <v>3.060666584118957</v>
       </c>
       <c r="D65">
-        <v>4.778318079520426</v>
+        <v>3.522301024416869</v>
       </c>
       <c r="E65">
-        <v>2.693345557771413</v>
+        <v>2.490394923063418</v>
       </c>
       <c r="F65">
-        <v>4.417973862890305</v>
+        <v>2.57744859302732</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.940328347383687</v>
+        <v>2.102383718354271</v>
       </c>
       <c r="C66">
-        <v>2.624451126187147</v>
+        <v>3.117607903903188</v>
       </c>
       <c r="D66">
-        <v>4.858906598914311</v>
+        <v>3.568422060172491</v>
       </c>
       <c r="E66">
-        <v>2.735078120927775</v>
+        <v>2.520264373537714</v>
       </c>
       <c r="F66">
-        <v>4.483301876048085</v>
+        <v>2.612155418289572</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.973720637845778</v>
+        <v>2.113824333158552</v>
       </c>
       <c r="C67">
-        <v>2.651138323315354</v>
+        <v>3.17537750041836</v>
       </c>
       <c r="D67">
-        <v>4.942838128594816</v>
+        <v>3.61664813384805</v>
       </c>
       <c r="E67">
-        <v>2.779255673824756</v>
+        <v>2.553204691340423</v>
       </c>
       <c r="F67">
-        <v>4.550201617325019</v>
+        <v>2.650529490775103</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.009093129121978</v>
+        <v>2.126535673396496</v>
       </c>
       <c r="C68">
-        <v>2.679183484120702</v>
+        <v>3.233800703561941</v>
       </c>
       <c r="D68">
-        <v>5.02984533432209</v>
+        <v>3.66710269723508</v>
       </c>
       <c r="E68">
-        <v>2.825743906031616</v>
+        <v>2.589579623339969</v>
       </c>
       <c r="F68">
-        <v>4.618596184415914</v>
+        <v>2.692899512039394</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.046608459535412</v>
+        <v>2.140682609000538</v>
       </c>
       <c r="C69">
-        <v>2.708653717214876</v>
+        <v>3.292735934578836</v>
       </c>
       <c r="D69">
-        <v>5.119594242774088</v>
+        <v>3.719900048615415</v>
       </c>
       <c r="E69">
-        <v>2.874351310497083</v>
+        <v>2.629723237267048</v>
       </c>
       <c r="F69">
-        <v>4.688394081501491</v>
+        <v>2.739492733426737</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.086428494139066</v>
+        <v>2.15645096455333</v>
       </c>
       <c r="C70">
-        <v>2.739612967942219</v>
+        <v>3.352070332074216</v>
       </c>
       <c r="D70">
-        <v>5.211713298723863</v>
+        <v>3.775139887009105</v>
       </c>
       <c r="E70">
-        <v>2.924842119426968</v>
+        <v>2.673889529920759</v>
       </c>
       <c r="F70">
-        <v>4.75949148024162</v>
+        <v>2.790377568257527</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.128707864415932</v>
+        <v>2.17404673423479</v>
       </c>
       <c r="C71">
-        <v>2.772120179800975</v>
+        <v>3.411714933080986</v>
       </c>
       <c r="D71">
-        <v>5.305821942747201</v>
+        <v>3.832901448277751</v>
       </c>
       <c r="E71">
-        <v>2.97695298777617</v>
+        <v>2.722193722624361</v>
       </c>
       <c r="F71">
-        <v>4.831774796707932</v>
+        <v>2.845424596029644</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.173585657276289</v>
+        <v>2.19369308915788</v>
       </c>
       <c r="C72">
-        <v>2.806227252545026</v>
+        <v>3.471600114605683</v>
       </c>
       <c r="D72">
-        <v>5.401553960964652</v>
+        <v>3.893237627901068</v>
       </c>
       <c r="E72">
-        <v>3.03041032435332</v>
+        <v>2.774563047607634</v>
       </c>
       <c r="F72">
-        <v>4.905123416397649</v>
+        <v>2.904306173748527</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.221175507977465</v>
+        <v>2.215623481390075</v>
       </c>
       <c r="C73">
-        <v>2.841976876780806</v>
+        <v>3.531671580807339</v>
       </c>
       <c r="D73">
-        <v>5.498573288856704</v>
+        <v>3.956169706615936</v>
       </c>
       <c r="E73">
-        <v>3.084945477362907</v>
+        <v>2.830719080799748</v>
       </c>
       <c r="F73">
-        <v>4.979412408643342</v>
+        <v>2.966541208762242</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.271554847618502</v>
+        <v>2.240068632594834</v>
       </c>
       <c r="C74">
-        <v>2.879400361805332</v>
+        <v>3.591887017200724</v>
       </c>
       <c r="D74">
-        <v>5.596582329649574</v>
+        <v>4.021683443503307</v>
       </c>
       <c r="E74">
-        <v>3.140306204278736</v>
+        <v>2.890205861749439</v>
       </c>
       <c r="F74">
-        <v>5.054515094271673</v>
+        <v>3.031569654428601</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.324754571890043</v>
+        <v>2.267237425871182</v>
       </c>
       <c r="C75">
-        <v>2.918515606730539</v>
+        <v>3.652213380033389</v>
       </c>
       <c r="D75">
-        <v>5.695324277129627</v>
+        <v>4.089727217821808</v>
       </c>
       <c r="E75">
-        <v>3.196263872405553</v>
+        <v>2.952456860817483</v>
       </c>
       <c r="F75">
-        <v>5.130305361010897</v>
+        <v>3.098829045140831</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.380750875426155</v>
+        <v>2.29729134500582</v>
       </c>
       <c r="C76">
-        <v>2.959325387001931</v>
+        <v>3.712624745469646</v>
       </c>
       <c r="D76">
-        <v>5.794581416835849</v>
+        <v>4.160212438721277</v>
       </c>
       <c r="E76">
-        <v>3.252616867872232</v>
+        <v>3.016875506835935</v>
       </c>
       <c r="F76">
-        <v>5.206659655250041</v>
+        <v>3.167810678318223</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.439460922616993</v>
+        <v>2.330315388084922</v>
       </c>
       <c r="C77">
-        <v>3.001816131343389</v>
+        <v>3.773100637022626</v>
       </c>
       <c r="D77">
-        <v>5.894171174325087</v>
+        <v>4.233016647399414</v>
       </c>
       <c r="E77">
-        <v>3.309191098942257</v>
+        <v>3.082902286724131</v>
       </c>
       <c r="F77">
-        <v>5.28345861244506</v>
+        <v>3.238088034492228</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.500743877205061</v>
+        <v>2.366292364664058</v>
       </c>
       <c r="C78">
-        <v>3.045957342008825</v>
+        <v>3.833624732480713</v>
       </c>
       <c r="D78">
-        <v>5.993941261480729</v>
+        <v>4.307988810381638</v>
       </c>
       <c r="E78">
-        <v>3.365838583796394</v>
+        <v>3.150054566493087</v>
       </c>
       <c r="F78">
-        <v>5.360588316562232</v>
+        <v>3.309322256453097</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.564407334948772</v>
+        <v>2.405088848561851</v>
       </c>
       <c r="C79">
-        <v>3.091701762514943</v>
+        <v>3.894183873848997</v>
       </c>
       <c r="D79">
-        <v>6.093764762492196</v>
+        <v>4.38495624305003</v>
       </c>
       <c r="E79">
-        <v>3.422434967796576</v>
+        <v>3.217939863070436</v>
       </c>
       <c r="F79">
-        <v>5.437941208857564</v>
+        <v>3.381253887891649</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.63021871656824</v>
+        <v>2.446459859428032</v>
       </c>
       <c r="C80">
-        <v>3.138986326460542</v>
+        <v>3.9547673185836</v>
       </c>
       <c r="D80">
-        <v>6.193535624406033</v>
+        <v>4.463732329567697</v>
       </c>
       <c r="E80">
-        <v>3.478876595577277</v>
+        <v>3.286251566276602</v>
       </c>
       <c r="F80">
-        <v>5.515416674585026</v>
+        <v>3.453688997425466</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.6979193502596</v>
+        <v>2.490073208408099</v>
       </c>
       <c r="C81">
-        <v>3.18773383941436</v>
+        <v>4.015366173625056</v>
       </c>
       <c r="D81">
-        <v>6.293164754757353</v>
+        <v>4.544124170131305</v>
       </c>
       <c r="E81">
-        <v>3.535077545503724</v>
+        <v>3.354756174430158</v>
       </c>
       <c r="F81">
-        <v>5.592921355939036</v>
+        <v>3.526484749655405</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.76723931617695</v>
+        <v>2.535546944660932</v>
       </c>
       <c r="C82">
-        <v>3.237855267829974</v>
+        <v>4.07597297003233</v>
       </c>
       <c r="D82">
-        <v>6.392576767840058</v>
+        <v>4.625939460322527</v>
       </c>
       <c r="E82">
-        <v>3.5909668613095</v>
+        <v>3.42327824577109</v>
       </c>
       <c r="F82">
-        <v>5.670369239287966</v>
+        <v>3.599536703271671</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.837910794123587</v>
+        <v>2.582489133599254</v>
       </c>
       <c r="C83">
-        <v>3.289252449099317</v>
+        <v>4.136581346171033</v>
       </c>
       <c r="D83">
-        <v>6.491707344205238</v>
+        <v>4.708992126050994</v>
       </c>
       <c r="E83">
-        <v>3.646486091566651</v>
+        <v>3.491686576099319</v>
       </c>
       <c r="F83">
-        <v>5.747681565305279</v>
+        <v>3.672768617487826</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.909678563620995</v>
+        <v>2.630530383831045</v>
       </c>
       <c r="C84">
-        <v>3.341821005537886</v>
+        <v>4.197185810721542</v>
       </c>
       <c r="D84">
-        <v>6.590501101432336</v>
+        <v>4.79310650611807</v>
       </c>
       <c r="E84">
-        <v>3.701587167899121</v>
+        <v>3.559882959059759</v>
       </c>
       <c r="F84">
-        <v>5.824786607495076</v>
+        <v>3.746124745393241</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.982307281028349</v>
+        <v>2.679344294014118</v>
       </c>
       <c r="C85">
-        <v>3.395453234667325</v>
+        <v>4.257781565699097</v>
       </c>
       <c r="D85">
-        <v>6.6889099037436</v>
+        <v>4.87812009950142</v>
       </c>
       <c r="E85">
-        <v>3.756230628734172</v>
+        <v>3.627793416287472</v>
       </c>
       <c r="F85">
-        <v>5.901619358367584</v>
+        <v>3.819564172216641</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.055585463618109</v>
+        <v>2.728656188666157</v>
       </c>
       <c r="C86">
-        <v>3.450040736982689</v>
+        <v>4.318364374077814</v>
       </c>
       <c r="D86">
-        <v>6.786891501292948</v>
+        <v>4.963885048161154</v>
       </c>
       <c r="E86">
-        <v>3.810384134001998</v>
+        <v>3.695361703451686</v>
       </c>
       <c r="F86">
-        <v>5.978121153072931</v>
+        <v>3.893056607913832</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.129326826389091</v>
+        <v>2.778243145202891</v>
       </c>
       <c r="C87">
-        <v>3.505477188721123</v>
+        <v>4.378930460065492</v>
       </c>
       <c r="D87">
-        <v>6.884408812619343</v>
+        <v>5.050268597721977</v>
       </c>
       <c r="E87">
-        <v>3.864021285270893</v>
+        <v>3.76254456777624</v>
       </c>
       <c r="F87">
-        <v>6.054239292527456</v>
+        <v>3.966579450002059</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.203369790925531</v>
+        <v>2.827928939913389</v>
       </c>
       <c r="C88">
-        <v>3.561659587624029</v>
+        <v>4.439476433211801</v>
       </c>
       <c r="D88">
-        <v>6.981428532495489</v>
+        <v>5.137152805176581</v>
       </c>
       <c r="E88">
-        <v>3.917120530814298</v>
+        <v>3.82930833135811</v>
       </c>
       <c r="F88">
-        <v>6.12992653649752</v>
+        <v>4.040115650758834</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.277575643878207</v>
+        <v>2.877576847854379</v>
       </c>
       <c r="C89">
-        <v>3.618490219929221</v>
+        <v>4.499999230261099</v>
       </c>
       <c r="D89">
-        <v>7.077920932257036</v>
+        <v>5.224433740360297</v>
       </c>
       <c r="E89">
-        <v>3.969664441476005</v>
+        <v>3.895626435390021</v>
       </c>
       <c r="F89">
-        <v>6.205140761006561</v>
+        <v>4.113652208113876</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.351826745258717</v>
+        <v>2.927082165515858</v>
       </c>
       <c r="C90">
-        <v>3.675877521782235</v>
+        <v>4.560496069925563</v>
       </c>
       <c r="D90">
-        <v>7.1738592317288</v>
+        <v>5.3120203839596</v>
       </c>
       <c r="E90">
-        <v>4.021638997213655</v>
+        <v>3.961477630918589</v>
       </c>
       <c r="F90">
-        <v>6.279844497190742</v>
+        <v>4.187179056849347</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.426023484608873</v>
+        <v>2.976365441178865</v>
       </c>
       <c r="C91">
-        <v>3.73373681779662</v>
+        <v>4.620964417114901</v>
       </c>
       <c r="D91">
-        <v>7.269219202198355</v>
+        <v>5.399833379750687</v>
       </c>
       <c r="E91">
-        <v>4.073033126812803</v>
+        <v>4.026844761807091</v>
       </c>
       <c r="F91">
-        <v>6.354004638441629</v>
+        <v>4.26068832320056</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.500081773925285</v>
+        <v>3.025366777172918</v>
       </c>
       <c r="C92">
-        <v>3.79199050679958</v>
+        <v>4.681401954364848</v>
       </c>
       <c r="D92">
-        <v>7.363978835959079</v>
+        <v>5.487803753243902</v>
       </c>
       <c r="E92">
-        <v>4.123838167985943</v>
+        <v>4.091713833745163</v>
       </c>
       <c r="F92">
-        <v>6.427591964313388</v>
+        <v>4.334173761523621</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.573931093832379</v>
+        <v>3.074041248808155</v>
       </c>
       <c r="C93">
-        <v>3.850568115192265</v>
+        <v>4.741806558638284</v>
       </c>
       <c r="D93">
-        <v>7.458118083117457</v>
+        <v>5.575871670219119</v>
       </c>
       <c r="E93">
-        <v>4.17404752664471</v>
+        <v>4.156073325707647</v>
       </c>
       <c r="F93">
-        <v>6.500580834180099</v>
+        <v>4.407630342124538</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.647511951720903</v>
+        <v>3.122355324309253</v>
       </c>
       <c r="C94">
-        <v>3.909406114420858</v>
+        <v>4.802176282066571</v>
       </c>
       <c r="D94">
-        <v>7.551618691077949</v>
+        <v>5.66398527167429</v>
       </c>
       <c r="E94">
-        <v>4.22365639365441</v>
+        <v>4.219913693006426</v>
       </c>
       <c r="F94">
-        <v>6.572948887150362</v>
+        <v>4.48105395802854</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.720774050270871</v>
+        <v>3.17028411377284</v>
       </c>
       <c r="C95">
-        <v>3.96844759268814</v>
+        <v>4.862509335472843</v>
       </c>
       <c r="D95">
-        <v>7.644464010321145</v>
+        <v>5.752099622447973</v>
       </c>
       <c r="E95">
-        <v>4.272661482236263</v>
+        <v>4.283227010875009</v>
       </c>
       <c r="F95">
-        <v>6.644676734370672</v>
+        <v>4.554441216459798</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.793675132892936</v>
+        <v>3.217809291704028</v>
       </c>
       <c r="C96">
-        <v>4.027641808887732</v>
+        <v>4.922804074648667</v>
       </c>
       <c r="D96">
-        <v>7.736638805190808</v>
+        <v>5.840175776890322</v>
       </c>
       <c r="E96">
-        <v>4.32106082684386</v>
+        <v>4.346006688734121</v>
       </c>
       <c r="F96">
-        <v>6.715747662150343</v>
+        <v>4.627789276804309</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.866179418207348</v>
+        <v>3.264917515484512</v>
       </c>
       <c r="C97">
-        <v>4.086943718420951</v>
+        <v>4.983058988887768</v>
       </c>
       <c r="D97">
-        <v>7.828129176096038</v>
+        <v>5.928179957548918</v>
       </c>
       <c r="E97">
-        <v>4.368853595763059</v>
+        <v>4.408247259854226</v>
       </c>
       <c r="F97">
-        <v>6.786147410155399</v>
+        <v>4.701095734378022</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.938256563517016</v>
+        <v>3.311599198105236</v>
       </c>
       <c r="C98">
-        <v>4.14631348177025</v>
+        <v>5.043272690610797</v>
       </c>
       <c r="D98">
-        <v>7.918922454628155</v>
+        <v>6.016082837031801</v>
       </c>
       <c r="E98">
-        <v>4.416039942794536</v>
+        <v>4.469944217490655</v>
       </c>
       <c r="F98">
-        <v>6.855863955756282</v>
+        <v>4.774358533192697</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5.009880823845026</v>
+        <v>3.35784764922214</v>
       </c>
       <c r="C99">
-        <v>4.205715965100834</v>
+        <v>5.103443906004546</v>
       </c>
       <c r="D99">
-        <v>8.009007105398853</v>
+        <v>6.10385891971801</v>
       </c>
       <c r="E99">
-        <v>4.462620888891366</v>
+        <v>4.531093886733757</v>
       </c>
       <c r="F99">
-        <v>6.92488730067575</v>
+        <v>4.847575900024124</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5.081030347324331</v>
+        <v>3.403658430772718</v>
       </c>
       <c r="C100">
-        <v>4.265120260252982</v>
+        <v>5.163571466753746</v>
       </c>
       <c r="D100">
-        <v>8.09837265856995</v>
+        <v>6.191486014973039</v>
       </c>
       <c r="E100">
-        <v>4.508598214318006</v>
+        <v>4.59169332012845</v>
       </c>
       <c r="F100">
-        <v>6.993209280175945</v>
+        <v>4.920746293772904</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5.151686360049989</v>
+        <v>3.44902882115609</v>
       </c>
       <c r="C101">
-        <v>4.324499223171215</v>
+        <v>5.223654302789967</v>
       </c>
       <c r="D101">
-        <v>8.187009638706726</v>
+        <v>6.278944781212424</v>
       </c>
       <c r="E101">
-        <v>4.553974360168159</v>
+        <v>4.651740215256893</v>
       </c>
       <c r="F101">
-        <v>7.060823393530583</v>
+        <v>4.993868367246598</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5.221832840309411</v>
+        <v>3.493957419692273</v>
       </c>
       <c r="C102">
-        <v>4.383829056445482</v>
+        <v>5.283691435706249</v>
       </c>
       <c r="D102">
-        <v>8.274909496914447</v>
+        <v>6.366218341157604</v>
       </c>
       <c r="E102">
-        <v>4.598752345241789</v>
+        <v>4.711232845449437</v>
       </c>
       <c r="F102">
-        <v>7.127724650773841</v>
+        <v>5.066940937119628</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5.291456142874202</v>
+        <v>3.538443857258607</v>
       </c>
       <c r="C103">
-        <v>4.443088929265344</v>
+        <v>5.343681972677801</v>
       </c>
       <c r="D103">
-        <v>8.36206455791131</v>
+        <v>6.453291951662567</v>
       </c>
       <c r="E103">
-        <v>4.642935699202233</v>
+        <v>4.770170002517535</v>
       </c>
       <c r="F103">
-        <v>7.193909432512823</v>
+        <v>5.139962960562216</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5.360544647341345</v>
+        <v>3.582488582219182</v>
       </c>
       <c r="C104">
-        <v>4.502260632979789</v>
+        <v>5.403625100870056</v>
       </c>
       <c r="D104">
-        <v>8.448467974985604</v>
+        <v>6.54015272325042</v>
       </c>
       <c r="E104">
-        <v>4.686528401936444</v>
+        <v>4.828550947760954</v>
       </c>
       <c r="F104">
-        <v>7.259375368979629</v>
+        <v>5.212933516552638</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5.429088413079882</v>
+        <v>3.62609268498128</v>
       </c>
       <c r="C105">
-        <v>4.561328262621113</v>
+        <v>5.463520082321005</v>
       </c>
       <c r="D105">
-        <v>8.534113683419033</v>
+        <v>6.62678938130323</v>
       </c>
       <c r="E105">
-        <v>4.729534828218519</v>
+        <v>4.886375368933289</v>
       </c>
       <c r="F105">
-        <v>7.324121223274437</v>
+        <v>5.285851790299725</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5.497078940168942</v>
+        <v>3.66925776175699</v>
       </c>
       <c r="C106">
-        <v>4.620277949496653</v>
+        <v>5.523366249228244</v>
       </c>
       <c r="D106">
-        <v>8.618996357595936</v>
+        <v>6.713192060100933</v>
       </c>
       <c r="E106">
-        <v>4.771959706385555</v>
+        <v>4.943643343189379</v>
       </c>
       <c r="F106">
-        <v>7.388146780557204</v>
+        <v>5.358717061230903</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5.564509006163849</v>
+        <v>3.711985813214973</v>
       </c>
       <c r="C107">
-        <v>4.67909761530691</v>
+        <v>5.583162999601607</v>
       </c>
       <c r="D107">
-        <v>8.703111367558227</v>
+        <v>6.79935212937944</v>
       </c>
       <c r="E107">
-        <v>4.813808070028579</v>
+        <v>5.000355305499612</v>
       </c>
       <c r="F107">
-        <v>7.451452751800165</v>
+        <v>5.43152869346553</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5.631372521341562</v>
+        <v>3.754279164623153</v>
       </c>
       <c r="C108">
-        <v>4.737776751649442</v>
+        <v>5.642909793146127</v>
       </c>
       <c r="D108">
-        <v>8.786454746998146</v>
+        <v>6.885262044390944</v>
       </c>
       <c r="E108">
-        <v>4.855085219391706</v>
+        <v>5.056512020051239</v>
       </c>
       <c r="F108">
-        <v>7.514040686785195</v>
+        <v>5.504286127447223</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5.697664386786951</v>
+        <v>3.796140403900755</v>
       </c>
       <c r="C109">
-        <v>4.796306231991426</v>
+        <v>5.702606147476713</v>
       </c>
       <c r="D109">
-        <v>8.869023151098284</v>
+        <v>6.970915217541279</v>
       </c>
       <c r="E109">
-        <v>4.895796688512914</v>
+        <v>5.11211455371767</v>
       </c>
       <c r="F109">
-        <v>7.575912894209287</v>
+        <v>5.576988872513864</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5.763380372827324</v>
+        <v>3.837572330573918</v>
       </c>
       <c r="C110">
-        <v>4.854678136027587</v>
+        <v>5.762251634572106</v>
       </c>
       <c r="D110">
-        <v>8.950813828331782</v>
+        <v>7.056305907798984</v>
       </c>
       <c r="E110">
-        <v>4.935948213486896</v>
+        <v>5.167164251793017</v>
       </c>
       <c r="F110">
-        <v>7.637072369055458</v>
+        <v>5.649636500614498</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5.828517011930096</v>
+        <v>3.87857790734102</v>
       </c>
       <c r="C111">
-        <v>4.912885614631596</v>
+        <v>5.821845877468191</v>
       </c>
       <c r="D111">
-        <v>9.031824594645219</v>
+        <v>7.141429125483634</v>
       </c>
       <c r="E111">
-        <v>4.975545708892832</v>
+        <v>5.221662716516239</v>
       </c>
       <c r="F111">
-        <v>7.697522726710298</v>
+        <v>5.722228641144503</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.893071503268883</v>
+        <v>3.919160236899534</v>
       </c>
       <c r="C112">
-        <v>4.970922757051322</v>
+        <v>5.881388547152568</v>
       </c>
       <c r="D112">
-        <v>9.112053791848183</v>
+        <v>7.226280550153949</v>
       </c>
       <c r="E112">
-        <v>5.014595241689408</v>
+        <v>5.275611787430931</v>
       </c>
       <c r="F112">
-        <v>7.757268140040553</v>
+        <v>5.794764976452237</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.957041654163945</v>
+        <v>3.959322538688459</v>
       </c>
       <c r="C113">
-        <v>5.028784477150992</v>
+        <v>5.940879359655118</v>
       </c>
       <c r="D113">
-        <v>9.191500274859189</v>
+        <v>7.310856458462426</v>
       </c>
       <c r="E113">
-        <v>5.053103008713576</v>
+        <v>5.329013523317307</v>
       </c>
       <c r="F113">
-        <v>7.816313283581153</v>
+        <v>5.867245237864442</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6.020425833777934</v>
+        <v>3.999068125241531</v>
       </c>
       <c r="C114">
-        <v>5.086466416228594</v>
+        <v>6.000318073317521</v>
       </c>
       <c r="D114">
-        <v>9.270163374155141</v>
+        <v>7.395153655696616</v>
       </c>
       <c r="E114">
-        <v>5.091075316875685</v>
+        <v>5.381870185648546</v>
       </c>
       <c r="F114">
-        <v>7.874663282487993</v>
+        <v>5.939669201856495</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6.083222940489579</v>
+        <v>4.038400384874405</v>
       </c>
       <c r="C115">
-        <v>5.143964851432676</v>
+        <v>6.059704486240475</v>
       </c>
       <c r="D115">
-        <v>9.348042873823616</v>
+        <v>7.479169425437775</v>
       </c>
       <c r="E115">
-        <v>5.128518563946571</v>
+        <v>5.434184221984102</v>
       </c>
       <c r="F115">
-        <v>7.932323665655216</v>
+        <v>6.012036687116129</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6.145432312936865</v>
+        <v>4.077322765993296</v>
       </c>
       <c r="C116">
-        <v>5.201276628197804</v>
+        <v>6.119038433884367</v>
       </c>
       <c r="D116">
-        <v>9.42513898802558</v>
+        <v>7.562901486365076</v>
       </c>
       <c r="E116">
-        <v>5.165439223353656</v>
+        <v>5.485958251080404</v>
       </c>
       <c r="F116">
-        <v>7.989300322123561</v>
+        <v>6.084347550542542</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6.207053693068805</v>
+        <v>4.115838765086576</v>
       </c>
       <c r="C117">
-        <v>5.258399090170397</v>
+        <v>6.178319786814678</v>
       </c>
       <c r="D117">
-        <v>9.501452333876832</v>
+        <v>7.646347946636736</v>
       </c>
       <c r="E117">
-        <v>5.201843828745039</v>
+        <v>5.537195051226834</v>
       </c>
       <c r="F117">
-        <v>8.045599462522297</v>
+        <v>6.156601685786532</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6.26808720861982</v>
+        <v>4.153951917701331</v>
       </c>
       <c r="C118">
-        <v>5.315330021552824</v>
+        <v>6.237548448382897</v>
       </c>
       <c r="D118">
-        <v>9.576983914264208</v>
+        <v>7.72950726671313</v>
       </c>
       <c r="E118">
-        <v>5.237738960379234</v>
+        <v>5.587897544065922</v>
       </c>
       <c r="F118">
-        <v>8.101227582176945</v>
+        <v>6.228799020425791</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6.328533288817527</v>
+        <v>4.191665790294472</v>
       </c>
       <c r="C119">
-        <v>5.372067595888717</v>
+        <v>6.296724352963602</v>
       </c>
       <c r="D119">
-        <v>9.651735094252114</v>
+        <v>7.812378224451635</v>
       </c>
       <c r="E119">
-        <v>5.273131234223037</v>
+        <v>5.63806878730688</v>
       </c>
       <c r="F119">
-        <v>8.156191427895843</v>
+        <v>6.300939513243359</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6.388392724859043</v>
+        <v>4.228983973356751</v>
       </c>
       <c r="C120">
-        <v>5.428610330786053</v>
+        <v>6.355847464005465</v>
       </c>
       <c r="D120">
-        <v>9.725707580304572</v>
+        <v>7.894959886242101</v>
       </c>
       <c r="E120">
-        <v>5.308027286117656</v>
+        <v>5.687711961646919</v>
       </c>
       <c r="F120">
-        <v>8.210497967477865</v>
+        <v>6.373023153085409</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6.447666522834888</v>
+        <v>4.265910075207816</v>
       </c>
       <c r="C121">
-        <v>5.484957050826035</v>
+        <v>6.414917772143032</v>
       </c>
       <c r="D121">
-        <v>9.798903404553004</v>
+        <v>7.977251581305885</v>
       </c>
       <c r="E121">
-        <v>5.342433769826975</v>
+        <v>5.736830359562059</v>
       </c>
       <c r="F121">
-        <v>8.264154364669317</v>
+        <v>6.445049956260153</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6.50635602033207</v>
+        <v>4.302447716764669</v>
       </c>
       <c r="C122">
-        <v>5.541106851536639</v>
+        <v>6.473935293740785</v>
       </c>
       <c r="D122">
-        <v>9.871324902068313</v>
+        <v>8.059252878294462</v>
       </c>
       <c r="E122">
-        <v>5.376357332597983</v>
+        <v>5.785427376807014</v>
       </c>
       <c r="F122">
-        <v>8.317167945234608</v>
+        <v>6.517019964725675</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6.564462739882101</v>
+        <v>4.338600526642072</v>
       </c>
       <c r="C123">
-        <v>5.597059069311736</v>
+        <v>6.532900069182609</v>
       </c>
       <c r="D123">
-        <v>9.942974696396574</v>
+        <v>8.140963564419412</v>
       </c>
       <c r="E123">
-        <v>5.409804627315668</v>
+        <v>5.83350650298769</v>
       </c>
       <c r="F123">
-        <v>8.36954618616557</v>
+        <v>6.588933244642538</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6.621988473164277</v>
+        <v>4.37437213733892</v>
       </c>
       <c r="C124">
-        <v>5.652813253858969</v>
+        <v>6.591812161366459</v>
       </c>
       <c r="D124">
-        <v>10.01385568173587</v>
+        <v>8.222383627751794</v>
       </c>
       <c r="E124">
-        <v>5.442782282322782</v>
+        <v>5.881071311770351</v>
       </c>
       <c r="F124">
-        <v>8.421296673329163</v>
+        <v>6.660789884734976</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6.678935192044365</v>
+        <v>4.409766181754666</v>
       </c>
       <c r="C125">
-        <v>5.708369147451292</v>
+        <v>6.650671654305605</v>
       </c>
       <c r="D125">
-        <v>10.08397100469937</v>
+        <v>8.303513237771032</v>
       </c>
       <c r="E125">
-        <v>5.475296916961224</v>
+        <v>5.928125454821267</v>
       </c>
       <c r="F125">
-        <v>8.472427107609946</v>
+        <v>6.732589994666291</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6.735305070831594</v>
+        <v>4.444786290185532</v>
       </c>
       <c r="C126">
-        <v>5.763726661333904</v>
+        <v>6.709478651880715</v>
       </c>
       <c r="D126">
-        <v>10.15332405294795</v>
+        <v>8.384352732522276</v>
       </c>
       <c r="E126">
-        <v>5.507355116178622</v>
+        <v>5.974672653504183</v>
       </c>
       <c r="F126">
-        <v>8.522945261928895</v>
+        <v>6.804333704059043</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6.791100451582916</v>
+        <v>4.479436087751331</v>
       </c>
       <c r="C127">
-        <v>5.818885856759039</v>
+        <v>6.76823327656706</v>
       </c>
       <c r="D127">
-        <v>10.22191843668882</v>
+        <v>8.464902597434104</v>
       </c>
       <c r="E127">
-        <v>5.538963439751368</v>
+        <v>6.02071669111981</v>
       </c>
       <c r="F127">
-        <v>8.57285898614372</v>
+        <v>6.876021160973463</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6.846323833662493</v>
+        <v>4.513719191761484</v>
       </c>
       <c r="C128">
-        <v>5.873846926772982</v>
+        <v>6.826935668204616</v>
       </c>
       <c r="D128">
-        <v>10.28975797679954</v>
+        <v>8.545163463180208</v>
       </c>
       <c r="E128">
-        <v>5.570128405813246</v>
+        <v>6.066261407771218</v>
       </c>
       <c r="F128">
-        <v>8.622176178049321</v>
+        <v>6.947652530739513</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6.900977864443384</v>
+        <v>4.547639209565887</v>
       </c>
       <c r="C129">
-        <v>5.928610183537155</v>
+        <v>6.88558598301131</v>
       </c>
       <c r="D129">
-        <v>10.35684669137965</v>
+        <v>8.625136081697224</v>
       </c>
       <c r="E129">
-        <v>5.60085649320641</v>
+        <v>6.111310693258131</v>
       </c>
       <c r="F129">
-        <v>8.670904774789355</v>
+        <v>7.019227994950965</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6.955065319302326</v>
+        <v>4.5811997368886</v>
       </c>
       <c r="C130">
-        <v>5.983176044712984</v>
+        <v>6.944184392490492</v>
       </c>
       <c r="D130">
-        <v>10.42318878071521</v>
+        <v>8.704821331026329</v>
       </c>
       <c r="E130">
-        <v>5.631154132241612</v>
+        <v>6.155868481017909</v>
       </c>
       <c r="F130">
-        <v>8.71905274051387</v>
+        <v>7.090747750306353</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.008589106026293</v>
+        <v>4.614404355183993</v>
       </c>
       <c r="C131">
-        <v>6.037545025083213</v>
+        <v>7.00273108253028</v>
       </c>
       <c r="D131">
-        <v>10.48878861799235</v>
+        <v>8.784220190381113</v>
       </c>
       <c r="E131">
-        <v>5.66102770500821</v>
+        <v>6.199938743547601</v>
       </c>
       <c r="F131">
-        <v>8.76662804780276</v>
+        <v>7.162212007613965</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.061552237053734</v>
+        <v>4.647256631763689</v>
       </c>
       <c r="C132">
-        <v>6.091717723420614</v>
+        <v>7.061226252310599</v>
       </c>
       <c r="D132">
-        <v>10.55365073741325</v>
+        <v>8.863333746392343</v>
       </c>
       <c r="E132">
-        <v>5.690483538175932</v>
+        <v>6.24352548661661</v>
       </c>
       <c r="F132">
-        <v>8.813638676967587</v>
+        <v>7.233620990986055</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.113957839685165</v>
+        <v>4.679760115265299</v>
       </c>
       <c r="C133">
-        <v>6.145694817839535</v>
+        <v>7.119670113567909</v>
       </c>
       <c r="D133">
-        <v>10.61777982021376</v>
+        <v>8.942163171063566</v>
       </c>
       <c r="E133">
-        <v>5.719527903381403</v>
+        <v>6.286632744515241</v>
       </c>
       <c r="F133">
-        <v>8.860092595183305</v>
+        <v>7.304974936856739</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7.165809131864848</v>
+        <v>4.711918338569895</v>
       </c>
       <c r="C134">
-        <v>6.199477051629666</v>
+        <v>7.178062889792095</v>
       </c>
       <c r="D134">
-        <v>10.68118068178858</v>
+        <v>9.020709725023421</v>
       </c>
       <c r="E134">
-        <v>5.748167011947531</v>
+        <v>6.329264576134934</v>
       </c>
       <c r="F134">
-        <v>8.90599775834607</v>
+        <v>7.376274093205321</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7.217109423802476</v>
+        <v>4.74373481307238</v>
       </c>
       <c r="C135">
-        <v>6.253065231597081</v>
+        <v>7.236404814959805</v>
       </c>
       <c r="D135">
-        <v>10.74385827723551</v>
+        <v>9.098974741082872</v>
       </c>
       <c r="E135">
-        <v>5.776407014247331</v>
+        <v>6.371425060134551</v>
       </c>
       <c r="F135">
-        <v>8.951362093932293</v>
+        <v>7.447518718846109</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7.267862104051193</v>
+        <v>4.775213032139817</v>
       </c>
       <c r="C136">
-        <v>6.30646021348884</v>
+        <v>7.294696134017149</v>
       </c>
       <c r="D136">
-        <v>10.80581765972646</v>
+        <v>9.176959626771241</v>
       </c>
       <c r="E136">
-        <v>5.80425399679201</v>
+        <v>6.413118291267857</v>
       </c>
       <c r="F136">
-        <v>8.996193500507946</v>
+        <v>7.518709082619528</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7.318070635955056</v>
+        <v>4.806356466419311</v>
       </c>
       <c r="C137">
-        <v>6.359662905563503</v>
+        <v>7.352937100422392</v>
       </c>
       <c r="D137">
-        <v>10.86706400455295</v>
+        <v>9.254665848848953</v>
       </c>
       <c r="E137">
-        <v>5.831713980157413</v>
+        <v>6.454348376936283</v>
       </c>
       <c r="F137">
-        <v>9.040499837105093</v>
+        <v>7.589845462780676</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7.367738547842333</v>
+        <v>4.837168565796568</v>
       </c>
       <c r="C138">
-        <v>6.412674251437063</v>
+        <v>7.411127977645368</v>
       </c>
       <c r="D138">
-        <v>10.92760258733515</v>
+        <v>9.332094938236528</v>
       </c>
       <c r="E138">
-        <v>5.85879291840794</v>
+        <v>6.495119433833072</v>
       </c>
       <c r="F138">
-        <v>9.084288917856743</v>
+        <v>7.660928146466235</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7.416869430384539</v>
+        <v>4.867652756574484</v>
       </c>
       <c r="C139">
-        <v>6.465495239028828</v>
+        <v>7.469269036451591</v>
       </c>
       <c r="D139">
-        <v>10.98743875826923</v>
+        <v>9.409248474864111</v>
       </c>
       <c r="E139">
-        <v>5.885496695762834</v>
+        <v>6.535435584063267</v>
       </c>
       <c r="F139">
-        <v>9.127568508656683</v>
+        <v>7.731957428603325</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7.465466927308468</v>
+        <v>4.897812442007881</v>
       </c>
       <c r="C140">
-        <v>6.518126882610622</v>
+        <v>7.527360556185567</v>
       </c>
       <c r="D140">
-        <v>11.0465779781244</v>
+        <v>9.486128092785137</v>
       </c>
       <c r="E140">
-        <v>5.911831128009264</v>
+        <v>6.575300952052846</v>
       </c>
       <c r="F140">
-        <v>9.170346317498518</v>
+        <v>7.802933612333302</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7.513534733139776</v>
+        <v>4.927651000710517</v>
       </c>
       <c r="C141">
-        <v>6.570570232201822</v>
+        <v>7.585402822743075</v>
       </c>
       <c r="D141">
-        <v>11.10502575910535</v>
+        <v>9.562735467450624</v>
       </c>
       <c r="E141">
-        <v>5.937801958344213</v>
+        <v>6.614719663600357</v>
       </c>
       <c r="F141">
-        <v>9.212629995790229</v>
+        <v>7.873857006985981</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7.561076586161726</v>
+        <v>4.957171786919656</v>
       </c>
       <c r="C142">
-        <v>6.622826358910316</v>
+        <v>7.643396129158887</v>
       </c>
       <c r="D142">
-        <v>11.16278769149032</v>
+        <v>9.639072318622311</v>
       </c>
       <c r="E142">
-        <v>5.963414859922408</v>
+        <v>6.6536958377589</v>
       </c>
       <c r="F142">
-        <v>9.25442712866605</v>
+        <v>7.944727929044096</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7.60809626436017</v>
+        <v>4.986378129090953</v>
       </c>
       <c r="C143">
-        <v>6.674896360742837</v>
+        <v>7.701340774353243</v>
       </c>
       <c r="D143">
-        <v>11.21986943321799</v>
+        <v>9.715140401105524</v>
       </c>
       <c r="E143">
-        <v>5.988675431933755</v>
+        <v>6.692233594607781</v>
       </c>
       <c r="F143">
-        <v>9.295745236446592</v>
+        <v>8.0155467009299</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7.654597581368039</v>
+        <v>5.015273330408868</v>
       </c>
       <c r="C144">
-        <v>6.726781352860376</v>
+        <v>7.759237063155996</v>
       </c>
       <c r="D144">
-        <v>11.27627668521873</v>
+        <v>9.790941505582055</v>
       </c>
       <c r="E144">
-        <v>6.013589202095863</v>
+        <v>6.730337039994393</v>
       </c>
       <c r="F144">
-        <v>9.33659176741487</v>
+        <v>8.086313650396944</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7.700584380531855</v>
+        <v>5.043860667439931</v>
       </c>
       <c r="C145">
-        <v>6.778482470075608</v>
+        <v>7.81708530565782</v>
       </c>
       <c r="D145">
-        <v>11.33201520782273</v>
+        <v>9.866477451812832</v>
       </c>
       <c r="E145">
-        <v>6.038161623579573</v>
+        <v>6.768010275786572</v>
       </c>
       <c r="F145">
-        <v>9.376974097885986</v>
+        <v>8.157029111104961</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7.746060533404259</v>
+        <v>5.072143390613173</v>
       </c>
       <c r="C146">
-        <v>6.830000860360023</v>
+        <v>7.874885816806381</v>
       </c>
       <c r="D146">
-        <v>11.38709079557309</v>
+        <v>9.941750088716736</v>
       </c>
       <c r="E146">
-        <v>6.062398077089198</v>
+        <v>6.805257389478403</v>
       </c>
       <c r="F146">
-        <v>9.416899528242091</v>
+        <v>8.227693420827677</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7.791029932895905</v>
+        <v>5.10012472321358</v>
       </c>
       <c r="C147">
-        <v>6.881337686328955</v>
+        <v>7.932638916305958</v>
       </c>
       <c r="D147">
-        <v>11.44150928110425</v>
+        <v>10.01676128885639</v>
       </c>
       <c r="E147">
-        <v>6.086303868694293</v>
+        <v>6.842082455863726</v>
       </c>
       <c r="F147">
-        <v>9.45637528075151</v>
+        <v>8.298306922518174</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7.835496493142219</v>
+        <v>5.127807861610997</v>
       </c>
       <c r="C148">
-        <v>6.932494119979342</v>
+        <v>7.990344927786412</v>
       </c>
       <c r="D148">
-        <v>11.49527653502606</v>
+        <v>10.09151294838891</v>
       </c>
       <c r="E148">
-        <v>6.109884231480516</v>
+        <v>6.878489536002707</v>
       </c>
       <c r="F148">
-        <v>9.495408499076154</v>
+        <v>8.368869962724064</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7.879464142849868</v>
+        <v>5.155195974638517</v>
       </c>
       <c r="C149">
-        <v>6.983471344261507</v>
+        <v>8.048004179130775</v>
       </c>
       <c r="D149">
-        <v>11.54839844331975</v>
+        <v>10.16600698247778</v>
       </c>
       <c r="E149">
-        <v>6.133144324163907</v>
+        <v>6.914482672468111</v>
       </c>
       <c r="F149">
-        <v>9.534006244123365</v>
+        <v>8.439382892178097</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7.922936825435393</v>
+        <v>5.182292203616049</v>
       </c>
       <c r="C150">
-        <v>7.034270548522372</v>
+        <v>8.105617001439672</v>
       </c>
       <c r="D150">
-        <v>11.60088092286717</v>
+        <v>10.24024532493341</v>
       </c>
       <c r="E150">
-        <v>6.156089232414097</v>
+        <v>6.950065891849159</v>
       </c>
       <c r="F150">
-        <v>9.572175495643167</v>
+        <v>8.509846064897244</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7.96591849325034</v>
+        <v>5.209099662030891</v>
       </c>
       <c r="C151">
-        <v>7.084892929796984</v>
+        <v>8.163183729454845</v>
       </c>
       <c r="D151">
-        <v>11.65272990324948</v>
+        <v>10.31422992467728</v>
       </c>
       <c r="E151">
-        <v>6.178723968104644</v>
+        <v>6.985243198974386</v>
       </c>
       <c r="F151">
-        <v>9.60992314824262</v>
+        <v>8.580259838157364</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8.008413107303621</v>
+        <v>5.235621435447222</v>
       </c>
       <c r="C152">
-        <v>7.135339689300149</v>
+        <v>8.220704700618155</v>
       </c>
       <c r="D152">
-        <v>11.70395132349354</v>
+        <v>10.38796274483775</v>
       </c>
       <c r="E152">
-        <v>6.201053470360776</v>
+        <v>7.020018580116418</v>
       </c>
       <c r="F152">
-        <v>9.647256012844517</v>
+        <v>8.650624572262389</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>8.050424632749067</v>
+        <v>5.261860581402155</v>
       </c>
       <c r="C153">
-        <v>7.185612032974983</v>
+        <v>8.278180255417944</v>
       </c>
       <c r="D153">
-        <v>11.75455114016549</v>
+        <v>10.46144576029618</v>
       </c>
       <c r="E153">
-        <v>6.223082605364153</v>
+        <v>7.054395997378361</v>
       </c>
       <c r="F153">
-        <v>9.684180814042946</v>
+        <v>8.720940629971077</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>8.091957037885892</v>
+        <v>5.287820129238383</v>
       </c>
       <c r="C154">
-        <v>7.235711169154331</v>
+        <v>8.335610736592757</v>
       </c>
       <c r="D154">
-        <v>11.80453530443647</v>
+        <v>10.5346809562698</v>
       </c>
       <c r="E154">
-        <v>6.24481616712257</v>
+        <v>7.088379391249951</v>
       </c>
       <c r="F154">
-        <v>9.720704190799639</v>
+        <v>8.791208376841206</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>8.133014290985004</v>
+        <v>5.313503080178148</v>
       </c>
       <c r="C155">
-        <v>7.2856383084444</v>
+        <v>8.39299648938243</v>
       </c>
       <c r="D155">
-        <v>11.85390977391307</v>
+        <v>10.60767032679804</v>
       </c>
       <c r="E155">
-        <v>6.266258877777672</v>
+        <v>7.121972678150546</v>
       </c>
       <c r="F155">
-        <v>9.756832695422176</v>
+        <v>8.861428180254116</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>8.173600358565482</v>
+        <v>5.338912407083014</v>
       </c>
       <c r="C156">
-        <v>7.335394662291373</v>
+        <v>8.450337860969872</v>
       </c>
       <c r="D156">
-        <v>11.90268050383835</v>
+        <v>10.68041587293466</v>
       </c>
       <c r="E156">
-        <v>6.287415388104595</v>
+        <v>7.155179748813538</v>
       </c>
       <c r="F156">
-        <v>9.792572793168031</v>
+        <v>8.931600410045325</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>8.213719203509283</v>
+        <v>5.364051054680519</v>
       </c>
       <c r="C157">
-        <v>7.384981442489303</v>
+        <v>8.507635200468096</v>
       </c>
       <c r="D157">
-        <v>11.95085343870008</v>
+        <v>10.75291960201431</v>
       </c>
       <c r="E157">
-        <v>6.308290278258714</v>
+        <v>7.188004470176858</v>
       </c>
       <c r="F157">
-        <v>9.827930862866825</v>
+        <v>9.001725437528947</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>8.253374782596985</v>
+        <v>5.388921939267467</v>
       </c>
       <c r="C158">
-        <v>7.434399860353905</v>
+        <v>8.564888858707194</v>
       </c>
       <c r="D158">
-        <v>11.99843452147362</v>
+        <v>10.82518352552899</v>
       </c>
       <c r="E158">
-        <v>6.328888058042216</v>
+        <v>7.220450680902399</v>
       </c>
       <c r="F158">
-        <v>9.862913195642783</v>
+        <v>9.071803635860485</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>8.292571045868616</v>
+        <v>5.413527949043114</v>
       </c>
       <c r="C159">
-        <v>7.48365112601346</v>
+        <v>8.622099187955413</v>
       </c>
       <c r="D159">
-        <v>12.04542967581654</v>
+        <v>10.8972096590445</v>
       </c>
       <c r="E159">
-        <v>6.349213168008024</v>
+        <v>7.252522194347467</v>
       </c>
       <c r="F159">
-        <v>9.897525996445331</v>
+        <v>9.141835379642952</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>8.331311933498968</v>
+        <v>5.437871943817633</v>
       </c>
       <c r="C160">
-        <v>7.53273644802234</v>
+        <v>8.679266541955247</v>
       </c>
       <c r="D160">
-        <v>12.09184481357017</v>
+        <v>10.96900001984017</v>
       </c>
       <c r="E160">
-        <v>6.369269979569816</v>
+        <v>7.284222794826867</v>
       </c>
       <c r="F160">
-        <v>9.931775383175953</v>
+        <v>9.211821044711137</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>8.369601375935307</v>
+        <v>5.461956755378893</v>
       </c>
       <c r="C161">
-        <v>7.581657032484846</v>
+        <v>8.736391275506579</v>
       </c>
       <c r="D161">
-        <v>12.13768583131581</v>
+        <v>11.04055662726008</v>
       </c>
       <c r="E161">
-        <v>6.389062796286271</v>
+        <v>7.315556239143347</v>
       </c>
       <c r="F161">
-        <v>9.965667388133847</v>
+        <v>9.281761008189381</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8.407443290875412</v>
+        <v>5.48578518725509</v>
       </c>
       <c r="C162">
-        <v>7.630414083011988</v>
+        <v>8.793473744615547</v>
       </c>
       <c r="D162">
-        <v>12.18295860034938</v>
+        <v>11.11188150038171</v>
       </c>
       <c r="E162">
-        <v>6.408595854038248</v>
+        <v>7.346526254834445</v>
       </c>
       <c r="F162">
-        <v>9.999207955793748</v>
+        <v>9.351655648035262</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>8.44484158337354</v>
+        <v>5.509360015078858</v>
       </c>
       <c r="C163">
-        <v>7.679008799720942</v>
+        <v>8.850514306050073</v>
       </c>
       <c r="D163">
-        <v>12.22766897629077</v>
+        <v>11.18297665846985</v>
       </c>
       <c r="E163">
-        <v>6.427873322261187</v>
+        <v>7.377136540206034</v>
       </c>
       <c r="F163">
-        <v>10.03240294724755</v>
+        <v>9.421505343296278</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>8.481800143555724</v>
+        <v>5.53268398641519</v>
       </c>
       <c r="C164">
-        <v>7.727442379464517</v>
+        <v>8.907513317524474</v>
       </c>
       <c r="D164">
-        <v>12.27182278528762</v>
+        <v>11.25384411890645</v>
       </c>
       <c r="E164">
-        <v>6.446899304283772</v>
+        <v>7.407390764517285</v>
       </c>
       <c r="F164">
-        <v>10.06525813730437</v>
+        <v>9.491310473557366</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>8.518322846708356</v>
+        <v>5.555759821109368</v>
       </c>
       <c r="C165">
-        <v>7.775716014757082</v>
+        <v>8.964471137268815</v>
       </c>
       <c r="D165">
-        <v>12.31542582806566</v>
+        <v>11.32448589759465</v>
       </c>
       <c r="E165">
-        <v>6.465677838476323</v>
+        <v>7.437292565999687</v>
       </c>
       <c r="F165">
-        <v>10.09777921368952</v>
+        <v>9.561071419217445</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>8.554413549592619</v>
+        <v>5.578590211183124</v>
       </c>
       <c r="C166">
-        <v>7.823830894161083</v>
+        <v>9.021388124221801</v>
       </c>
       <c r="D166">
-        <v>12.35848388044322</v>
+        <v>11.39490400717212</v>
       </c>
       <c r="E166">
-        <v>6.484212898735187</v>
+        <v>7.466845553773429</v>
       </c>
       <c r="F166">
-        <v>10.12997178672137</v>
+        <v>9.630788561095425</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>8.590076092576746</v>
+        <v>5.601177821156541</v>
       </c>
       <c r="C167">
-        <v>7.871788201324644</v>
+        <v>9.078264637645345</v>
       </c>
       <c r="D167">
-        <v>12.40100268316162</v>
+        <v>11.46510045736426</v>
       </c>
       <c r="E167">
-        <v>6.502508395548054</v>
+        <v>7.49605330519947</v>
       </c>
       <c r="F167">
-        <v>10.16184137706549</v>
+        <v>9.700462280459517</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>8.62531429739375</v>
+        <v>5.623525288043071</v>
       </c>
       <c r="C168">
-        <v>7.919589115613332</v>
+        <v>9.135101037247283</v>
       </c>
       <c r="D168">
-        <v>12.44298794928782</v>
+        <v>11.53507725345282</v>
       </c>
       <c r="E168">
-        <v>6.520568176641135</v>
+        <v>7.524919367878352</v>
       </c>
       <c r="F168">
-        <v>10.19339342475906</v>
+        <v>9.770092958960811</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>8.660131962732848</v>
+        <v>5.645635221660177</v>
       </c>
       <c r="C169">
-        <v>7.967234810539136</v>
+        <v>9.191897682961709</v>
       </c>
       <c r="D169">
-        <v>12.48444535690373</v>
+        <v>11.60483639656368</v>
       </c>
       <c r="E169">
-        <v>6.538396027961305</v>
+        <v>7.553447257714674</v>
       </c>
       <c r="F169">
-        <v>10.22463329173184</v>
+        <v>9.839680978390689</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>8.694532871720115</v>
+        <v>5.667510204449704</v>
       </c>
       <c r="C170">
-        <v>8.014726454251976</v>
+        <v>9.248654934904318</v>
       </c>
       <c r="D170">
-        <v>12.52538054814427</v>
+        <v>11.67437988238251</v>
       </c>
       <c r="E170">
-        <v>6.55599567417788</v>
+        <v>7.581640459698241</v>
       </c>
       <c r="F170">
-        <v>10.25556625485791</v>
+        <v>9.909226720818339</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>8.728520783796226</v>
+        <v>5.689152791987775</v>
       </c>
       <c r="C171">
-        <v>8.06206521073875</v>
+        <v>9.305373153319195</v>
       </c>
       <c r="D171">
-        <v>12.56579913267024</v>
+        <v>11.74370970136177</v>
       </c>
       <c r="E171">
-        <v>6.573370779955526</v>
+        <v>7.6095024276369</v>
       </c>
       <c r="F171">
-        <v>10.28619751316469</v>
+        <v>9.978730568256575</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8.762099434160818</v>
+        <v>5.710565513155341</v>
       </c>
       <c r="C172">
-        <v>8.109252236190601</v>
+        <v>9.362052698428702</v>
       </c>
       <c r="D172">
-        <v>12.6057066787117</v>
+        <v>11.81282783780247</v>
       </c>
       <c r="E172">
-        <v>6.590524950570521</v>
+        <v>7.637036583553533</v>
       </c>
       <c r="F172">
-        <v>10.31653218723082</v>
+        <v>10.04819290285408</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8.795272541603183</v>
+        <v>5.731750869684435</v>
       </c>
       <c r="C173">
-        <v>8.15628868145197</v>
+        <v>9.418693930472493</v>
       </c>
       <c r="D173">
-        <v>12.6451087183771</v>
+        <v>11.88173626999589</v>
       </c>
       <c r="E173">
-        <v>6.607461732383775</v>
+        <v>7.664246318477568</v>
       </c>
       <c r="F173">
-        <v>10.34657531815542</v>
+        <v>10.11761410657635</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8.828043796696653</v>
+        <v>5.75271133722251</v>
       </c>
       <c r="C174">
-        <v>8.203175693139567</v>
+        <v>9.475297209512078</v>
       </c>
       <c r="D174">
-        <v>12.68401074426246</v>
+        <v>11.95043696863653</v>
       </c>
       <c r="E174">
-        <v>6.624184614558006</v>
+        <v>7.691134991273</v>
       </c>
       <c r="F174">
-        <v>10.3763318709638</v>
+        <v>10.18699456132742</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>8.860416867393289</v>
+        <v>5.773449365259465</v>
       </c>
       <c r="C175">
-        <v>8.249914409146401</v>
+        <v>9.531862895513395</v>
       </c>
       <c r="D175">
-        <v>12.72241820623404</v>
+        <v>12.01893189790453</v>
       </c>
       <c r="E175">
-        <v>6.640697029195834</v>
+        <v>7.71770592986961</v>
       </c>
       <c r="F175">
-        <v>10.40580673388646</v>
+        <v>10.2563346488086</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>8.892395400318126</v>
+        <v>5.793967376613415</v>
       </c>
       <c r="C176">
-        <v>8.296505962057196</v>
+        <v>9.588391348140252</v>
       </c>
       <c r="D176">
-        <v>12.76033651619606</v>
+        <v>12.08722301495688</v>
       </c>
       <c r="E176">
-        <v>6.65700235216737</v>
+        <v>7.74396243000694</v>
       </c>
       <c r="F176">
-        <v>10.43500471971119</v>
+        <v>10.32563475044536</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8.923983014526259</v>
+        <v>5.814267768670846</v>
       </c>
       <c r="C177">
-        <v>8.342951479399671</v>
+        <v>9.644882926853818</v>
       </c>
       <c r="D177">
-        <v>12.79777104034693</v>
+        <v>12.15531226737132</v>
       </c>
       <c r="E177">
-        <v>6.67310390456911</v>
+        <v>7.769907756220293</v>
       </c>
       <c r="F177">
-        <v>10.4639305677153</v>
+        <v>10.39489524742639</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>8.955183305090827</v>
+        <v>5.83435291312204</v>
       </c>
       <c r="C178">
-        <v>8.389252080434471</v>
+        <v>9.701337990715626</v>
       </c>
       <c r="D178">
-        <v>12.83472710319718</v>
+        <v>12.22320159633771</v>
       </c>
       <c r="E178">
-        <v>6.689004952939588</v>
+        <v>7.795545141423443</v>
       </c>
       <c r="F178">
-        <v>10.49258894288799</v>
+        <v>10.46411652051713</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8.985999842960283</v>
+        <v>5.854225155826646</v>
       </c>
       <c r="C179">
-        <v>8.435408878689472</v>
+        <v>9.757756898476236</v>
       </c>
       <c r="D179">
-        <v>12.87120998644858</v>
+        <v>12.2908929351005</v>
       </c>
       <c r="E179">
-        <v>6.704708710354448</v>
+        <v>7.820877786909599</v>
       </c>
       <c r="F179">
-        <v>10.5209844382654</v>
+        <v>10.53329895017864</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>9.016436171503676</v>
+        <v>5.873886817643298</v>
       </c>
       <c r="C180">
-        <v>8.481422981648707</v>
+        <v>9.81414000842398</v>
       </c>
       <c r="D180">
-        <v>12.90722492504498</v>
+        <v>12.35838820636478</v>
       </c>
       <c r="E180">
-        <v>6.720218337147502</v>
+        <v>7.845908862849139</v>
       </c>
       <c r="F180">
-        <v>10.54912157607132</v>
+        <v>10.60244291635872</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>9.046495808975914</v>
+        <v>5.893340194285209</v>
       </c>
       <c r="C181">
-        <v>8.527295489343802</v>
+        <v>9.870487678419439</v>
       </c>
       <c r="D181">
-        <v>12.94277711170853</v>
+        <v>12.42568932611712</v>
       </c>
       <c r="E181">
-        <v>6.735536941926838</v>
+        <v>7.870641507723505</v>
       </c>
       <c r="F181">
-        <v>10.57700480741545</v>
+        <v>10.67154879859814</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>9.076182247743489</v>
+        <v>5.912587556472285</v>
       </c>
       <c r="C182">
-        <v>8.573027495512713</v>
+        <v>9.926800265825042</v>
       </c>
       <c r="D182">
-        <v>12.97787169152443</v>
+        <v>12.49279820137684</v>
       </c>
       <c r="E182">
-        <v>6.750667582240903</v>
+        <v>7.895078829178796</v>
       </c>
       <c r="F182">
-        <v>10.60463851474009</v>
+        <v>10.74061697589377</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>9.105498952163822</v>
+        <v>5.931631150395861</v>
       </c>
       <c r="C183">
-        <v>8.618620087310903</v>
+        <v>9.983078127470559</v>
       </c>
       <c r="D183">
-        <v>13.01251376404776</v>
+        <v>12.55971672890926</v>
       </c>
       <c r="E183">
-        <v>6.765613265105799</v>
+        <v>7.919223903390212</v>
       </c>
       <c r="F183">
-        <v>10.63202701221786</v>
+        <v>10.80964782671073</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>9.134449361408089</v>
+        <v>5.950473197726992</v>
       </c>
       <c r="C184">
-        <v>8.664074344769999</v>
+        <v>10.03932161964811</v>
       </c>
       <c r="D184">
-        <v>13.04670838383569</v>
+        <v>12.62644679767349</v>
       </c>
       <c r="E184">
-        <v>6.780376948445444</v>
+        <v>7.943079775820384</v>
       </c>
       <c r="F184">
-        <v>10.65917454654856</v>
+        <v>10.87864172896161</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>9.163036887405934</v>
+        <v>5.969115895852653</v>
       </c>
       <c r="C185">
-        <v>8.709391341427196</v>
+        <v>10.09553109803865</v>
       </c>
       <c r="D185">
-        <v>13.08046055669408</v>
+        <v>12.69299028700644</v>
       </c>
       <c r="E185">
-        <v>6.794961541412081</v>
+        <v>7.966649460935671</v>
       </c>
       <c r="F185">
-        <v>10.68608529847927</v>
+        <v>10.9475990599241</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>9.191264913880982</v>
+        <v>5.987561418233047</v>
       </c>
       <c r="C186">
-        <v>8.754572144090186</v>
+        <v>10.15170691774233</v>
       </c>
       <c r="D186">
-        <v>13.11377524309348</v>
+        <v>12.75934906635031</v>
       </c>
       <c r="E186">
-        <v>6.809369905062507</v>
+        <v>7.98993594252719</v>
       </c>
       <c r="F186">
-        <v>10.71276338346973</v>
+        <v>11.01652019629645</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>9.219136799709821</v>
+        <v>6.005811914436068</v>
       </c>
       <c r="C187">
-        <v>8.799617812396502</v>
+        <v>10.2078494331888</v>
       </c>
       <c r="D187">
-        <v>13.14665735550586</v>
+        <v>12.8255249964168</v>
       </c>
       <c r="E187">
-        <v>6.823604853693786</v>
+        <v>8.012942173943211</v>
       </c>
       <c r="F187">
-        <v>10.73921285283409</v>
+        <v>11.08540551407574</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>9.24665587506955</v>
+        <v>6.023869510417156</v>
       </c>
       <c r="C188">
-        <v>8.844529399522429</v>
+        <v>10.26395899818408</v>
       </c>
       <c r="D188">
-        <v>13.17911175842568</v>
+        <v>12.89151992790959</v>
       </c>
       <c r="E188">
-        <v>6.837669155109801</v>
+        <v>8.035671077997359</v>
       </c>
       <c r="F188">
-        <v>10.76543769460913</v>
+        <v>11.15425538863934</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>9.27382544274592</v>
+        <v>6.041736308943166</v>
       </c>
       <c r="C189">
-        <v>8.889307951817973</v>
+        <v>10.32003596581978</v>
       </c>
       <c r="D189">
-        <v>13.21114327018597</v>
+        <v>12.9573357016211</v>
       </c>
       <c r="E189">
-        <v>6.8515655313816</v>
+        <v>8.058125547524732</v>
       </c>
       <c r="F189">
-        <v>10.79144183479418</v>
+        <v>11.22307019462651</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>9.300648778734436</v>
+        <v>6.059414389479194</v>
       </c>
       <c r="C190">
-        <v>8.933954508528837</v>
+        <v>10.37608068855344</v>
       </c>
       <c r="D190">
-        <v>13.24275665961339</v>
+        <v>13.02297414931743</v>
       </c>
       <c r="E190">
-        <v>6.865296660106419</v>
+        <v>8.080308445134374</v>
       </c>
       <c r="F190">
-        <v>10.81722913809908</v>
+        <v>11.29185030599116</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>9.327129130831365</v>
+        <v>6.076905808598436</v>
       </c>
       <c r="C191">
-        <v>8.978470102484474</v>
+        <v>10.43209351805594</v>
       </c>
       <c r="D191">
-        <v>13.27395664862227</v>
+        <v>13.08843709234808</v>
       </c>
       <c r="E191">
-        <v>6.878865174556496</v>
+        <v>8.102222603840785</v>
       </c>
       <c r="F191">
-        <v>10.84280340897494</v>
+        <v>11.36059609595408</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>9.353269719482107</v>
+        <v>6.094212600275207</v>
       </c>
       <c r="C192">
-        <v>9.022855759645456</v>
+        <v>10.48807480524988</v>
       </c>
       <c r="D192">
-        <v>13.30474791117713</v>
+        <v>13.15372634208829</v>
       </c>
       <c r="E192">
-        <v>6.892273664602676</v>
+        <v>8.123870826879434</v>
       </c>
       <c r="F192">
-        <v>10.86816839279679</v>
+        <v>11.42930793697988</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>9.379073738560463</v>
+        <v>6.111336775924279</v>
       </c>
       <c r="C193">
-        <v>9.067112499031513</v>
+        <v>10.54402490042456</v>
       </c>
       <c r="D193">
-        <v>13.33513507236971</v>
+        <v>13.21884370098743</v>
       </c>
       <c r="E193">
-        <v>6.905524677820198</v>
+        <v>8.14525588816686</v>
       </c>
       <c r="F193">
-        <v>10.89332777649065</v>
+        <v>11.49798620079573</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>9.404544353167532</v>
+        <v>6.128280324739266</v>
       </c>
       <c r="C194">
-        <v>9.111241333172496</v>
+        <v>10.59994415303327</v>
       </c>
       <c r="D194">
-        <v>13.36512271067483</v>
+        <v>13.28379096066057</v>
       </c>
       <c r="E194">
-        <v>6.918620719500355</v>
+        <v>8.166380532435614</v>
       </c>
       <c r="F194">
-        <v>10.91828518980578</v>
+        <v>11.56663125833178</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>9.429684701366039</v>
+        <v>6.145045213910319</v>
       </c>
       <c r="C195">
-        <v>9.155243267770691</v>
+        <v>10.65583291167278</v>
       </c>
       <c r="D195">
-        <v>13.39471535524751</v>
+        <v>13.34856990291233</v>
       </c>
       <c r="E195">
-        <v>6.931564253838099</v>
+        <v>8.187247475418973</v>
       </c>
       <c r="F195">
-        <v>10.94304420621204</v>
+        <v>11.63524347978711</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>9.45449789409669</v>
+        <v>6.161633388808385</v>
       </c>
       <c r="C196">
-        <v>9.199119301766217</v>
+        <v>10.71169152424365</v>
       </c>
       <c r="D196">
-        <v>13.42391748785438</v>
+        <v>13.41318230038153</v>
       </c>
       <c r="E196">
-        <v>6.944357704777622</v>
+        <v>8.207859404254714</v>
       </c>
       <c r="F196">
-        <v>10.96760834347792</v>
+        <v>11.70382323450298</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.478987014085419</v>
+        <v>6.178046773228496</v>
       </c>
       <c r="C197">
-        <v>9.242870427591628</v>
+        <v>10.76752033795927</v>
       </c>
       <c r="D197">
-        <v>13.45273354276942</v>
+        <v>13.47762991498074</v>
       </c>
       <c r="E197">
-        <v>6.957003455931126</v>
+        <v>8.228218977301948</v>
       </c>
       <c r="F197">
-        <v>10.99198106525585</v>
+        <v>11.7723708910054</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9.503155117268575</v>
+        <v>6.194287269576441</v>
       </c>
       <c r="C198">
-        <v>9.286497630922401</v>
+        <v>10.82331969900303</v>
       </c>
       <c r="D198">
-        <v>13.48116790560978</v>
+        <v>13.5419144988767</v>
       </c>
       <c r="E198">
-        <v>6.969503852097173</v>
+        <v>8.248328824571923</v>
       </c>
       <c r="F198">
-        <v>11.0161657815166</v>
+        <v>11.84088681710129</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9.527005232339599</v>
+        <v>6.210356759147666</v>
       </c>
       <c r="C199">
-        <v>9.330001890796353</v>
+        <v>10.87908995280993</v>
       </c>
       <c r="D199">
-        <v>13.50922491541515</v>
+        <v>13.60603779477605</v>
       </c>
       <c r="E199">
-        <v>6.981861199706556</v>
+        <v>8.268191548508192</v>
       </c>
       <c r="F199">
-        <v>11.04016584936283</v>
+        <v>11.90937137972775</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>9.550540360178156</v>
+        <v>6.226257102301467</v>
       </c>
       <c r="C200">
-        <v>9.373384179819782</v>
+        <v>10.93483144421016</v>
       </c>
       <c r="D200">
-        <v>13.53690886291097</v>
+        <v>13.67000153496588</v>
       </c>
       <c r="E200">
-        <v>6.994077766735921</v>
+        <v>8.287809723137146</v>
       </c>
       <c r="F200">
-        <v>11.06398457456162</v>
+        <v>11.97782494491011</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>9.573763475125622</v>
+        <v>6.241990138662346</v>
       </c>
       <c r="C201">
-        <v>9.416645463909182</v>
+        <v>10.99054451695962</v>
       </c>
       <c r="D201">
-        <v>13.56422399191086</v>
+        <v>13.73380744197724</v>
       </c>
       <c r="E201">
-        <v>7.006155784585649</v>
+        <v>8.307185894835722</v>
       </c>
       <c r="F201">
-        <v>11.08762521169382</v>
+        <v>12.04624787787971</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>9.596677524178254</v>
+        <v>6.257557687401154</v>
       </c>
       <c r="C202">
-        <v>9.45978670247446</v>
+        <v>11.04622951404853</v>
       </c>
       <c r="D202">
-        <v>13.59117449995471</v>
+        <v>13.79745722875583</v>
       </c>
       <c r="E202">
-        <v>7.018097447983047</v>
+        <v>8.326322582923058</v>
       </c>
       <c r="F202">
-        <v>11.11109096538686</v>
+        <v>12.11464054319688</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.619285427181527</v>
+        <v>6.272961547398458</v>
       </c>
       <c r="C203">
-        <v>9.502808848604326</v>
+        <v>11.10188677772741</v>
       </c>
       <c r="D203">
-        <v>13.61776453606702</v>
+        <v>13.86095259805498</v>
       </c>
       <c r="E203">
-        <v>7.02990491522259</v>
+        <v>8.345222280026329</v>
       </c>
       <c r="F203">
-        <v>11.1343849914466</v>
+        <v>12.18300330433165</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>9.641590077765947</v>
+        <v>6.288203497448334</v>
       </c>
       <c r="C204">
-        <v>9.545712848790899</v>
+        <v>11.15751664934583</v>
       </c>
       <c r="D204">
-        <v>13.64399820246594</v>
+        <v>13.92429524292216</v>
       </c>
       <c r="E204">
-        <v>7.04158030987145</v>
+        <v>8.363887451024807</v>
       </c>
       <c r="F204">
-        <v>11.15751039685913</v>
+        <v>12.25133652395776</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>9.663594342252511</v>
+        <v>6.303285296540778</v>
       </c>
       <c r="C205">
-        <v>9.588499643163662</v>
+        <v>11.21311946939413</v>
       </c>
       <c r="D205">
-        <v>13.6698795563791</v>
+        <v>13.98748684686158</v>
       </c>
       <c r="E205">
-        <v>7.053125720611455</v>
+        <v>8.382320534392226</v>
       </c>
       <c r="F205">
-        <v>11.18047024166382</v>
+        <v>12.31964056404196</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>9.685301060495579</v>
+        <v>6.318208684009616</v>
       </c>
       <c r="C206">
-        <v>9.631170165597084</v>
+        <v>11.26869557756039</v>
       </c>
       <c r="D206">
-        <v>13.69541260935341</v>
+        <v>14.05052908332747</v>
       </c>
       <c r="E206">
-        <v>7.064543201595371</v>
+        <v>8.40052394291398</v>
       </c>
       <c r="F206">
-        <v>11.20326753922444</v>
+        <v>12.3879157855997</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>9.706713046238363</v>
+        <v>6.332975379739689</v>
       </c>
       <c r="C207">
-        <v>9.673725343539271</v>
+        <v>11.32424531271094</v>
       </c>
       <c r="D207">
-        <v>13.72060132364021</v>
+        <v>14.11342361619784</v>
       </c>
       <c r="E207">
-        <v>7.075834773999254</v>
+        <v>8.418500062538678</v>
       </c>
       <c r="F207">
-        <v>11.22590525671828</v>
+        <v>12.45616254875112</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>9.72783308646652</v>
+        <v>6.347587084454655</v>
       </c>
       <c r="C208">
-        <v>9.716166098193403</v>
+        <v>11.37976901281042</v>
       </c>
       <c r="D208">
-        <v>13.74544961622133</v>
+        <v>14.17617209989706</v>
       </c>
       <c r="E208">
-        <v>7.087002425804867</v>
+        <v>8.436251253499341</v>
       </c>
       <c r="F208">
-        <v>11.24838631686705</v>
+        <v>12.52438121280126</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>9.748663942143105</v>
+        <v>6.362045479837438</v>
       </c>
       <c r="C209">
-        <v>9.758493344584117</v>
+        <v>11.43526701499476</v>
       </c>
       <c r="D209">
-        <v>13.76996136246044</v>
+        <v>14.23877617897579</v>
       </c>
       <c r="E209">
-        <v>7.098048112311989</v>
+        <v>8.45377985048343</v>
       </c>
       <c r="F209">
-        <v>11.27071359793996</v>
+        <v>12.59257213626007</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9.769208348436168</v>
+        <v>6.376352228747849</v>
       </c>
       <c r="C210">
-        <v>9.800707991484007</v>
+        <v>11.49073965558702</v>
       </c>
       <c r="D210">
-        <v>13.79414039124363</v>
+        <v>14.30123748856361</v>
       </c>
       <c r="E210">
-        <v>7.108973757482798</v>
+        <v>8.471088162862808</v>
       </c>
       <c r="F210">
-        <v>11.29288993463988</v>
+        <v>12.66073567668148</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>9.789469014292475</v>
+        <v>6.390508975514964</v>
       </c>
       <c r="C211">
-        <v>9.842810941536852</v>
+        <v>11.54618727001025</v>
       </c>
       <c r="D211">
-        <v>13.81799048358878</v>
+        <v>14.36355765442892</v>
       </c>
       <c r="E211">
-        <v>7.119781253687076</v>
+        <v>8.488178474736857</v>
       </c>
       <c r="F211">
-        <v>11.31491811945458</v>
+        <v>12.728872190785</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9.809448623146388</v>
+        <v>6.404517346025455</v>
       </c>
       <c r="C212">
-        <v>9.884803091310379</v>
+        <v>11.60161019284434</v>
       </c>
       <c r="D212">
-        <v>13.84151537696319</v>
+        <v>14.42573829270298</v>
       </c>
       <c r="E212">
-        <v>7.130472462406582</v>
+        <v>8.505053045369202</v>
       </c>
       <c r="F212">
-        <v>11.33680090252751</v>
+        <v>12.7969820344909</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>9.829149832970796</v>
+        <v>6.418378947963594</v>
       </c>
       <c r="C213">
-        <v>9.926685331274975</v>
+        <v>11.65700875786798</v>
       </c>
       <c r="D213">
-        <v>13.86471876865008</v>
+        <v>14.48778101024772</v>
       </c>
       <c r="E213">
-        <v>7.141049215312802</v>
+        <v>8.521714109148714</v>
       </c>
       <c r="F213">
-        <v>11.35854099308753</v>
+        <v>12.86506556280876</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>9.848575276135412</v>
+        <v>6.432095371088952</v>
       </c>
       <c r="C214">
-        <v>9.968458545897372</v>
+        <v>11.71238329796594</v>
       </c>
       <c r="D214">
-        <v>13.88760430908699</v>
+        <v>14.54968740467666</v>
       </c>
       <c r="E214">
-        <v>7.151513314005268</v>
+        <v>8.538163876261661</v>
       </c>
       <c r="F214">
-        <v>11.38014106012899</v>
+        <v>12.93312312988951</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>9.867727560022161</v>
+        <v>6.445668187304991</v>
       </c>
       <c r="C215">
-        <v>10.01012361369273</v>
+        <v>11.76773414517141</v>
       </c>
       <c r="D215">
-        <v>13.91017560460683</v>
+        <v>14.61145906422061</v>
       </c>
       <c r="E215">
-        <v>7.161866530935593</v>
+        <v>8.554404532641588</v>
       </c>
       <c r="F215">
-        <v>11.401603732399</v>
+        <v>13.00115508903577</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>9.886609266937674</v>
+        <v>6.459098950925584</v>
       </c>
       <c r="C216">
-        <v>10.05168140721877</v>
+        <v>11.82306163071317</v>
       </c>
       <c r="D216">
-        <v>13.93243621889784</v>
+        <v>14.67309756800137</v>
       </c>
       <c r="E216">
-        <v>7.172110610166696</v>
+        <v>8.570438240395015</v>
       </c>
       <c r="F216">
-        <v>11.42293160024478</v>
+        <v>13.06916179270106</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>9.905222954230499</v>
+        <v>6.472389198922974</v>
       </c>
       <c r="C217">
-        <v>10.09313279316276</v>
+        <v>11.87836608499195</v>
       </c>
       <c r="D217">
-        <v>13.95438967520125</v>
+        <v>14.73460448604226</v>
       </c>
       <c r="E217">
-        <v>7.182247267130479</v>
+        <v>8.586267138012001</v>
       </c>
       <c r="F217">
-        <v>11.44412721554293</v>
+        <v>13.13714359245875</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>9.923571154786696</v>
+        <v>6.485540450987494</v>
       </c>
       <c r="C218">
-        <v>10.13447863238768</v>
+        <v>11.93364783752049</v>
       </c>
       <c r="D218">
-        <v>13.97603945192079</v>
+        <v>14.79598137922259</v>
       </c>
       <c r="E218">
-        <v>7.19227818979534</v>
+        <v>8.601893340433515</v>
       </c>
       <c r="F218">
-        <v>11.46519309226201</v>
+        <v>13.20510083902736</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>9.941656376861314</v>
+        <v>6.498554209821852</v>
       </c>
       <c r="C219">
-        <v>10.17571977994231</v>
+        <v>11.98890721699459</v>
       </c>
       <c r="D219">
-        <v>13.99738898593425</v>
+        <v>14.8572297994972</v>
       </c>
       <c r="E219">
-        <v>7.202205039065377</v>
+        <v>8.61731893948062</v>
       </c>
       <c r="F219">
-        <v>11.48613170794793</v>
+        <v>13.27303388234182</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>9.959481104411525</v>
+        <v>6.511431961350688</v>
       </c>
       <c r="C220">
-        <v>10.21685708513644</v>
+        <v>12.04414455128963</v>
       </c>
       <c r="D220">
-        <v>14.01844167250673</v>
+        <v>14.91835128990045</v>
       </c>
       <c r="E220">
-        <v>7.212029448575323</v>
+        <v>8.632546003920401</v>
       </c>
       <c r="F220">
-        <v>11.5069455032431</v>
+        <v>13.34094307141689</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>9.97704779742806</v>
+        <v>6.524175174775166</v>
       </c>
       <c r="C221">
-        <v>10.2578913915816</v>
+        <v>12.09936016742823</v>
       </c>
       <c r="D221">
-        <v>14.03920086660462</v>
+        <v>14.97934738455118</v>
       </c>
       <c r="E221">
-        <v>7.22175302612795</v>
+        <v>8.647576579957235</v>
       </c>
       <c r="F221">
-        <v>11.5276368832791</v>
+        <v>13.40882875443467</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>9.994358891829014</v>
+        <v>6.53678530289899</v>
       </c>
       <c r="C222">
-        <v>10.29882353722185</v>
+        <v>12.15455439160687</v>
       </c>
       <c r="D222">
-        <v>14.05966988099784</v>
+        <v>15.04021960884536</v>
       </c>
       <c r="E222">
-        <v>7.231377353660674</v>
+        <v>8.662412691307431</v>
       </c>
       <c r="F222">
-        <v>11.54820821886924</v>
+        <v>13.4766912787485</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>10.01141679984444</v>
+        <v>6.549263782293448</v>
       </c>
       <c r="C223">
-        <v>10.3396543543893</v>
+        <v>12.20972754922387</v>
       </c>
       <c r="D223">
-        <v>14.0798519882336</v>
+        <v>15.10096947945189</v>
       </c>
       <c r="E223">
-        <v>7.240903987251732</v>
+        <v>8.677056339456319</v>
       </c>
       <c r="F223">
-        <v>11.5686618466109</v>
+        <v>13.54453099088126</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>10.02822391024288</v>
+        <v>6.561612033347321</v>
       </c>
       <c r="C224">
-        <v>10.38038466984587</v>
+        <v>12.2648799648274</v>
       </c>
       <c r="D224">
-        <v>14.09975042072613</v>
+        <v>15.16159850435648</v>
       </c>
       <c r="E224">
-        <v>7.250334458541949</v>
+        <v>8.691509503919443</v>
       </c>
       <c r="F224">
-        <v>11.58900006810483</v>
+        <v>13.61234823648994</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>10.04478258834046</v>
+        <v>6.573831460630384</v>
       </c>
       <c r="C225">
-        <v>10.42101530482851</v>
+        <v>12.32001196215035</v>
       </c>
       <c r="D225">
-        <v>14.11936837167377</v>
+        <v>15.22210818302588</v>
       </c>
       <c r="E225">
-        <v>7.259670274517878</v>
+        <v>8.70577414251785</v>
       </c>
       <c r="F225">
-        <v>11.60922515187904</v>
+        <v>13.68014336040488</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>10.06109517634586</v>
+        <v>6.585923453006541</v>
       </c>
       <c r="C226">
-        <v>10.46154707508862</v>
+        <v>12.37512386411549</v>
       </c>
       <c r="D226">
-        <v>14.13870899396233</v>
+        <v>15.28250000640561</v>
       </c>
       <c r="E226">
-        <v>7.268912917698263</v>
+        <v>8.719852191561468</v>
       </c>
       <c r="F226">
-        <v>11.62933933598777</v>
+        <v>13.74791670666199</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>10.07716399354276</v>
+        <v>6.597889383681588</v>
       </c>
       <c r="C227">
-        <v>10.50198079093866</v>
+        <v>12.43021599283145</v>
       </c>
       <c r="D227">
-        <v>14.1577754016505</v>
+        <v>15.34277545699396</v>
       </c>
       <c r="E227">
-        <v>7.27806384738552</v>
+        <v>8.733745565838358</v>
       </c>
       <c r="F227">
-        <v>11.64934482624972</v>
+        <v>13.81566861843006</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>10.09299133638531</v>
+        <v>6.609730610608211</v>
       </c>
       <c r="C228">
-        <v>10.54231725730089</v>
+        <v>12.48528866959014</v>
       </c>
       <c r="D228">
-        <v>14.17657067044299</v>
+        <v>15.40293600897243</v>
       </c>
       <c r="E228">
-        <v>7.287124499298084</v>
+        <v>8.747456159385562</v>
       </c>
       <c r="F228">
-        <v>11.66924379537944</v>
+        <v>13.88339943806552</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>10.10857947884165</v>
+        <v>6.621448476536052</v>
       </c>
       <c r="C229">
-        <v>10.58255727373974</v>
+        <v>12.54034221488411</v>
       </c>
       <c r="D229">
-        <v>14.19509783845809</v>
+        <v>15.4629831282186</v>
       </c>
       <c r="E229">
-        <v>7.296096285809174</v>
+        <v>8.760985845351183</v>
       </c>
       <c r="F229">
-        <v>11.68903838427292</v>
+        <v>13.95110950710937</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>10.12393067249531</v>
+        <v>6.633044309082638</v>
       </c>
       <c r="C230">
-        <v>10.62270163451257</v>
+        <v>12.59537694842078</v>
       </c>
       <c r="D230">
-        <v>14.21335990485426</v>
+        <v>15.52291827239529</v>
       </c>
       <c r="E230">
-        <v>7.304980597669336</v>
+        <v>8.774336476190502</v>
       </c>
       <c r="F230">
-        <v>11.70873070742828</v>
+        <v>14.01879916628645</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>10.13904714668711</v>
+        <v>6.644519421139409</v>
       </c>
       <c r="C231">
-        <v>10.66275112861646</v>
+        <v>12.65039318908766</v>
       </c>
       <c r="D231">
-        <v>14.23135983171054</v>
+        <v>15.58274289107119</v>
       </c>
       <c r="E231">
-        <v>7.313778803478038</v>
+        <v>8.787509884008577</v>
       </c>
       <c r="F231">
-        <v>11.72832284855723</v>
+        <v>14.08646875550173</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>10.15393110877697</v>
+        <v>6.65587511088266</v>
       </c>
       <c r="C232">
-        <v>10.70270653980398</v>
+        <v>12.7053912549853</v>
       </c>
       <c r="D232">
-        <v>14.24910054445054</v>
+        <v>15.6424584257137</v>
       </c>
       <c r="E232">
-        <v>7.322492250379013</v>
+        <v>8.800507880879382</v>
       </c>
       <c r="F232">
-        <v>11.74781686102353</v>
+        <v>14.15411861385361</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>10.1685847443621</v>
+        <v>6.667112661779886</v>
       </c>
       <c r="C233">
-        <v>10.74256864666013</v>
+        <v>12.76037146343803</v>
       </c>
       <c r="D233">
-        <v>14.2665849321084</v>
+        <v>15.70206630980154</v>
       </c>
       <c r="E233">
-        <v>7.331122261313733</v>
+        <v>8.813332258910677</v>
       </c>
       <c r="F233">
-        <v>11.76721476776367</v>
+        <v>14.22174907965185</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>10.18301021750583</v>
+        <v>6.678233343205253</v>
       </c>
       <c r="C234">
-        <v>10.78233822264142</v>
+        <v>12.81533413097167</v>
       </c>
       <c r="D234">
-        <v>14.28381584688021</v>
+        <v>15.76156796889183</v>
       </c>
       <c r="E234">
-        <v>7.339670141970706</v>
+        <v>8.825984790276499</v>
       </c>
       <c r="F234">
-        <v>11.78651856755928</v>
+        <v>14.28936049038601</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>10.19720967071478</v>
+        <v>6.689238410319147</v>
       </c>
       <c r="C235">
-        <v>10.82201603611056</v>
+        <v>12.87027957333489</v>
       </c>
       <c r="D235">
-        <v>14.30079610540555</v>
+        <v>15.82096482074645</v>
       </c>
       <c r="E235">
-        <v>7.348137176506502</v>
+        <v>8.83846722795729</v>
       </c>
       <c r="F235">
-        <v>11.80573023037412</v>
+        <v>14.35695318275395</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>10.21118522531873</v>
+        <v>6.700129104318877</v>
       </c>
       <c r="C236">
-        <v>10.86160285036616</v>
+        <v>12.92520810550739</v>
       </c>
       <c r="D236">
-        <v>14.31752848883355</v>
+        <v>15.8802582753725</v>
       </c>
       <c r="E236">
-        <v>7.356524629165702</v>
+        <v>8.850781305596993</v>
       </c>
       <c r="F236">
-        <v>11.82485169851162</v>
+        <v>14.42452749266669</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>10.22493898163518</v>
+        <v>6.710906652090093</v>
       </c>
       <c r="C237">
-        <v>10.90109942366904</v>
+        <v>12.98012004169555</v>
       </c>
       <c r="D237">
-        <v>14.33401574329471</v>
+        <v>15.93944973500301</v>
       </c>
       <c r="E237">
-        <v>7.3648337417828</v>
+        <v>8.862928737656794</v>
       </c>
       <c r="F237">
-        <v>11.84388488589822</v>
+        <v>14.49208375524523</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>10.23847301960429</v>
+        <v>6.721572267140513</v>
       </c>
       <c r="C238">
-        <v>10.94050650937204</v>
+        <v>13.03501569533466</v>
       </c>
       <c r="D238">
-        <v>14.35026058033316</v>
+        <v>15.99854059427634</v>
       </c>
       <c r="E238">
-        <v>7.373065737611543</v>
+        <v>8.874911219802986</v>
       </c>
       <c r="F238">
-        <v>11.86283168345486</v>
+        <v>14.55962230482157</v>
       </c>
     </row>
   </sheetData>
